--- a/Model building/Results 20.xlsx
+++ b/Model building/Results 20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\pc\Dokumenter\MSc\Thesis\Model building\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00368C77-AAB8-49CC-8462-CFEABAEBF452}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A49B08-A327-4242-A2E6-C8D75616CADF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="1275" windowWidth="21600" windowHeight="11280" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="70">
   <si>
     <t>Null Model</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>SRMR L3</t>
+  </si>
+  <si>
+    <t>Country-level Predictors</t>
+  </si>
+  <si>
+    <t>FKI</t>
+  </si>
+  <si>
+    <t>All countries</t>
   </si>
 </sst>
 </file>
@@ -755,43 +764,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F4851D-80C2-4990-AB58-C13F9E65D56B}">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11:M12"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="11"/>
-    <col min="16" max="16" width="8.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5546875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="3"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="11"/>
+    <col min="16" max="16" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>76</v>
-      </c>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>0</v>
@@ -819,7 +826,7 @@
       <c r="P1" s="35"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -858,7 +865,7 @@
       </c>
       <c r="Q2" s="6"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -879,7 +886,7 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -920,16 +927,16 @@
         <v>5</v>
       </c>
       <c r="O4" s="11">
-        <v>552.98900000000003</v>
+        <v>396.42500000000001</v>
       </c>
       <c r="P4" s="11">
-        <v>87.474000000000004</v>
+        <v>14.348000000000001</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -950,7 +957,7 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -981,11 +988,14 @@
       <c r="N6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O6" s="11">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="P6" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -1019,13 +1029,17 @@
       <c r="N7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="O7" s="14">
+        <v>-7.8E-2</v>
+      </c>
+      <c r="P7" s="14">
+        <v>1.6E-2</v>
+      </c>
       <c r="Q7" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -1059,13 +1073,17 @@
       <c r="N8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
+      <c r="O8" s="25">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="P8" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="Q8" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -1099,13 +1117,17 @@
       <c r="N9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
+      <c r="O9" s="25">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="P9" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="Q9" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -1139,13 +1161,17 @@
       <c r="N10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
+      <c r="O10" s="25">
+        <v>1.4E-2</v>
+      </c>
+      <c r="P10" s="25">
+        <v>2E-3</v>
+      </c>
       <c r="Q10" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -1176,11 +1202,17 @@
       <c r="N11" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="O11" s="11">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P11" s="11">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="Q11" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -1214,13 +1246,17 @@
       <c r="N12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="O12" s="14">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="P12" s="14">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="Q12" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -1254,13 +1290,17 @@
       <c r="N13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
+      <c r="O13" s="25">
+        <v>1.2E-2</v>
+      </c>
+      <c r="P13" s="25">
+        <v>2E-3</v>
+      </c>
       <c r="Q13" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -1294,13 +1334,17 @@
       <c r="N14" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
+      <c r="O14" s="25">
+        <v>1.2E-2</v>
+      </c>
+      <c r="P14" s="25">
+        <v>1E-3</v>
+      </c>
       <c r="Q14" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -1328,11 +1372,15 @@
         <v>0</v>
       </c>
       <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
+      <c r="O15" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="P15" s="25">
+        <v>1E-3</v>
+      </c>
       <c r="Q15" s="25"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -1357,8 +1405,17 @@
       <c r="M16" s="11">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O16" s="11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="P16" s="11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -1392,13 +1449,15 @@
       <c r="N17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O17" s="14">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="P17" s="14">
+        <v>1.4E-2</v>
+      </c>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -1432,13 +1491,17 @@
       <c r="N18" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
+      <c r="O18" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="P18" s="25">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="Q18" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -1472,13 +1535,17 @@
       <c r="N19" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
+      <c r="O19" s="25">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="P19" s="25">
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="Q19" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -1512,13 +1579,17 @@
       <c r="N20" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
+      <c r="O20" s="25">
+        <v>1.4E-2</v>
+      </c>
+      <c r="P20" s="25">
+        <v>2E-3</v>
+      </c>
       <c r="Q20" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -1546,13 +1617,17 @@
       <c r="N21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
+      <c r="O21" s="15">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="P21" s="15">
+        <v>1.4E-2</v>
+      </c>
       <c r="Q21" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -1577,10 +1652,17 @@
       <c r="M22" s="15">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O22" s="15">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="P22" s="15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -1602,8 +1684,17 @@
       <c r="M23" s="11">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O23" s="11">
+        <v>2.3E-2</v>
+      </c>
+      <c r="P23" s="11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -1634,11 +1725,17 @@
       <c r="N24" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="O24" s="11">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="P24" s="11">
+        <v>1.9E-2</v>
+      </c>
       <c r="Q24" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -1659,497 +1756,604 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="L26" s="11">
+        <v>-0.249</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="11">
+        <v>-0.25900000000000001</v>
+      </c>
+      <c r="P26" s="11">
+        <v>7.0999999999999994E-2</v>
+      </c>
       <c r="Q26" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="L27" s="11">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="M27" s="11">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="11">
+        <v>0.441</v>
+      </c>
+      <c r="P27" s="11">
+        <v>6.5000000000000002E-2</v>
+      </c>
       <c r="Q27" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
+      <c r="L28" s="11">
+        <v>-0.32</v>
+      </c>
+      <c r="M28" s="11">
+        <v>5.5E-2</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28" s="11">
+        <v>-0.16400000000000001</v>
+      </c>
+      <c r="P28" s="11">
+        <v>5.2999999999999999E-2</v>
+      </c>
       <c r="Q28" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
+      <c r="L29" s="11">
+        <v>-0.29899999999999999</v>
+      </c>
+      <c r="M29" s="11">
+        <v>3.9E-2</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="11">
+        <v>-0.184</v>
+      </c>
+      <c r="P29" s="11">
+        <v>4.1000000000000002E-2</v>
+      </c>
       <c r="Q29" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q30" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="L30" s="11">
+        <v>-0.121</v>
+      </c>
+      <c r="M30" s="11">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P30" s="11">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O32" s="11">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="P32" s="11">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="Q32" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26" t="s">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C35" s="27">
         <v>6117.3670000000002</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D35" s="27">
         <v>292.91199999999998</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27">
+      <c r="E35" s="27"/>
+      <c r="F35" s="27">
         <v>7450.9179999999997</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G35" s="27">
         <v>110.105</v>
       </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27">
+      <c r="H35" s="27"/>
+      <c r="I35" s="27">
         <v>5656.8310000000001</v>
       </c>
-      <c r="J33" s="27">
+      <c r="J35" s="27">
         <v>127.946</v>
       </c>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27">
+      <c r="K35" s="27"/>
+      <c r="L35" s="27">
         <v>5645.8720000000003</v>
       </c>
-      <c r="M33" s="27">
+      <c r="M35" s="27">
         <v>142.47399999999999</v>
       </c>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27">
-        <v>4936.4229999999998</v>
-      </c>
-      <c r="P33" s="27">
-        <v>143.203</v>
-      </c>
-      <c r="Q33" s="27"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26" t="s">
+      <c r="N35" s="27"/>
+      <c r="O35" s="27">
+        <v>5546.0590000000002</v>
+      </c>
+      <c r="P35" s="27">
+        <v>220.578</v>
+      </c>
+      <c r="Q35" s="27"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C36" s="27">
         <v>2657.4479999999999</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D36" s="27">
         <v>329.29599999999999</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27">
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27">
         <v>3113.0729999999999</v>
       </c>
-      <c r="J34" s="27">
+      <c r="J36" s="27">
         <v>192.25200000000001</v>
       </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27">
+      <c r="K36" s="27"/>
+      <c r="L36" s="27">
         <v>1310.682</v>
       </c>
-      <c r="M34" s="27">
+      <c r="M36" s="27">
         <v>134.083</v>
       </c>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27">
-        <v>351.67099999999999</v>
-      </c>
-      <c r="P34" s="27">
-        <v>1148.663</v>
-      </c>
-      <c r="Q34" s="27"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18" t="s">
+      <c r="N36" s="27"/>
+      <c r="O36" s="27">
+        <v>973.04</v>
+      </c>
+      <c r="P36" s="27">
+        <v>126.85299999999999</v>
+      </c>
+      <c r="Q36" s="27"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C37" s="19">
         <v>5163.7160000000003</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D37" s="19">
         <v>0.06</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19">
-        <v>351.67099999999999</v>
-      </c>
-      <c r="P35" s="19">
-        <v>1148.663</v>
-      </c>
-      <c r="Q35" s="19"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19">
+        <v>698.21</v>
+      </c>
+      <c r="P37" s="19">
+        <v>212.499</v>
+      </c>
+      <c r="Q37" s="19"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="20" t="s">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D39" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="20" t="s">
+      <c r="E39" s="22"/>
+      <c r="F39" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G39" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="20" t="s">
+      <c r="H39" s="22"/>
+      <c r="I39" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J37" s="21" t="s">
+      <c r="J39" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="22"/>
-      <c r="L37" s="20" t="s">
+      <c r="K39" s="22"/>
+      <c r="L39" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="21" t="s">
+      <c r="M39" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="22"/>
-      <c r="O37" s="20" t="s">
+      <c r="N39" s="22"/>
+      <c r="O39" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="P37" s="21" t="s">
+      <c r="P39" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="Q37" s="22"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="10" t="s">
+      <c r="Q39" s="22"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C40" s="23">
         <v>1408122.2949999999</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D40" s="23">
         <v>377.19900000000001</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23">
+      <c r="E40" s="23"/>
+      <c r="F40" s="23">
         <v>3227747.2170000002</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G40" s="23">
         <v>868.471</v>
       </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23">
+      <c r="H40" s="23"/>
+      <c r="I40" s="23">
         <v>3260162.4759999998</v>
       </c>
-      <c r="J38" s="23">
+      <c r="J40" s="23">
         <v>1165.9337</v>
       </c>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23">
+      <c r="K40" s="23"/>
+      <c r="L40" s="23">
         <v>2749224.1949999998</v>
       </c>
-      <c r="M38" s="23">
+      <c r="M40" s="23">
         <v>1145.789</v>
       </c>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23">
-        <v>202379.60800000001</v>
-      </c>
-      <c r="P38" s="23">
-        <v>109.322</v>
-      </c>
-      <c r="Q38" s="23"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="10" t="s">
+      <c r="N40" s="23"/>
+      <c r="O40" s="23">
+        <v>3005059.3020000001</v>
+      </c>
+      <c r="P40" s="23">
+        <v>434.31</v>
+      </c>
+      <c r="Q40" s="23"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C41" s="23">
         <v>1408161.098</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D41" s="23">
         <v>377.19900000000001</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23">
         <v>3228090.858</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G41" s="23">
         <v>868.471</v>
       </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23">
+      <c r="H41" s="23"/>
+      <c r="I41" s="23">
         <v>3260706.5729999999</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J41" s="23">
         <v>1165.9369999999999</v>
       </c>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23">
+      <c r="K41" s="23"/>
+      <c r="L41" s="23">
         <v>2749702.875</v>
       </c>
-      <c r="M39" s="23">
+      <c r="M41" s="23">
         <v>1145.789</v>
       </c>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23">
-        <v>202728.88200000001</v>
-      </c>
-      <c r="P39" s="23">
-        <v>109.322</v>
-      </c>
-      <c r="Q39" s="23"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B40" s="10" t="s">
+      <c r="N41" s="23"/>
+      <c r="O41" s="23">
+        <v>3005591.52</v>
+      </c>
+      <c r="P41" s="23">
+        <v>434.31</v>
+      </c>
+      <c r="Q41" s="23"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F42" s="11">
         <v>1706.2809999999999</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G42" s="11">
         <v>0.77300000000000002</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I42" s="11">
         <v>1017.0309999999999</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J42" s="11">
         <v>1.216</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L42" s="11">
         <v>988.84199999999998</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M42" s="11">
         <v>0.91700000000000004</v>
       </c>
-      <c r="O40" s="11">
-        <v>586.02</v>
-      </c>
-      <c r="P40" s="11">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B41" s="10" t="s">
+      <c r="O42" s="11">
+        <v>949.875</v>
+      </c>
+      <c r="P42" s="11">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F43" s="11">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G43" s="11">
         <v>0</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I43" s="11">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J43" s="11">
         <v>0</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L43" s="11">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="M41" s="11">
+      <c r="M43" s="11">
         <v>0</v>
       </c>
-      <c r="O41" s="11">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="P41" s="11">
+      <c r="O43" s="11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="P43" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="10" t="s">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F44" s="11">
         <v>0.83099999999999996</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G44" s="11">
         <v>1E-3</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I44" s="11">
         <v>0.83499999999999996</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J44" s="11">
         <v>1E-3</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L44" s="11">
         <v>0.81499999999999995</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M44" s="11">
         <v>1E-3</v>
       </c>
-      <c r="O42" s="11">
-        <v>0.77</v>
-      </c>
-      <c r="P42" s="11">
+      <c r="O44" s="11">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="P44" s="11">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B43" s="10" t="s">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F45" s="11">
         <v>0.79700000000000004</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G45" s="11">
         <v>2E-3</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I45" s="11">
         <v>0.57099999999999995</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J45" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L45" s="11">
         <v>0.59399999999999997</v>
       </c>
-      <c r="M43" s="11">
+      <c r="M45" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="O43" s="11">
-        <v>0.497</v>
-      </c>
-      <c r="P43" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26" t="s">
+      <c r="O45" s="11">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="P45" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27">
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G46" s="27">
         <v>0</v>
       </c>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27">
+      <c r="H46" s="27"/>
+      <c r="I46" s="27">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="J44" s="27">
+      <c r="J46" s="27">
         <v>0</v>
       </c>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27">
+      <c r="K46" s="27"/>
+      <c r="L46" s="27">
         <v>4.7E-2</v>
       </c>
-      <c r="M44" s="27">
+      <c r="M46" s="27">
         <v>0</v>
       </c>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="P44" s="27">
+      <c r="N46" s="27"/>
+      <c r="O46" s="27">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="P46" s="27">
         <v>0</v>
       </c>
-      <c r="Q44" s="27"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26" t="s">
+      <c r="Q46" s="27"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27">
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J45" s="27">
+      <c r="J47" s="27">
         <v>0</v>
       </c>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27">
+      <c r="K47" s="27"/>
+      <c r="L47" s="27">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="M45" s="27">
+      <c r="M47" s="27">
         <v>0</v>
       </c>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27">
-        <v>0.106</v>
-      </c>
-      <c r="P45" s="27">
+      <c r="N47" s="27"/>
+      <c r="O47" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="P47" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="27"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="P48" s="19">
         <v>1E-3</v>
       </c>
-      <c r="Q45" s="27"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19">
-        <v>0.106</v>
-      </c>
-      <c r="P46" s="19">
-        <v>1E-3</v>
-      </c>
-      <c r="Q46" s="19"/>
+      <c r="Q48" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2177,25 +2381,25 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>380</v>
       </c>
@@ -2223,7 +2427,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -2255,7 +2459,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -2273,7 +2477,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -2290,7 +2494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -2308,7 +2512,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -2322,7 +2526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -2345,7 +2549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -2368,7 +2572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -2391,7 +2595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -2414,7 +2618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -2428,7 +2632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -2451,7 +2655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -2474,7 +2678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -2497,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -2514,7 +2718,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -2522,7 +2726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -2545,7 +2749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -2568,7 +2772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -2591,7 +2795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -2614,7 +2818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -2629,7 +2833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -2641,12 +2845,12 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -2660,7 +2864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -2678,7 +2882,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -2686,7 +2890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -2694,7 +2898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -2704,7 +2908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -2712,7 +2916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -2720,7 +2924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="27"/>
@@ -2736,7 +2940,7 @@
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>43</v>
       </c>
@@ -2754,7 +2958,7 @@
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -2772,7 +2976,7 @@
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -2790,13 +2994,13 @@
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -2828,7 +3032,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -2846,7 +3050,7 @@
       <c r="M37" s="23"/>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -2864,27 +3068,27 @@
       <c r="M38" s="23"/>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -2902,7 +3106,7 @@
       <c r="M43" s="27"/>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -2945,25 +3149,25 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>428</v>
       </c>
@@ -2991,7 +3195,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -3023,7 +3227,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3041,7 +3245,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -3082,7 +3286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -3100,7 +3304,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -3126,7 +3330,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -3161,7 +3365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -3196,7 +3400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -3231,7 +3435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -3266,7 +3470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -3298,7 +3502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -3333,7 +3537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -3368,7 +3572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -3403,7 +3607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -3438,7 +3642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -3461,7 +3665,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -3496,7 +3700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -3531,7 +3735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -3566,7 +3770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -3601,7 +3805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -3624,7 +3828,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -3647,7 +3851,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -3670,7 +3874,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -3702,7 +3906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -3720,7 +3924,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -3731,7 +3935,7 @@
         <v>1.716</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -3742,7 +3946,7 @@
         <v>3.1030000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -3755,7 +3959,7 @@
         <v>3.665</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -3766,7 +3970,7 @@
         <v>2.5259999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -3777,7 +3981,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>43</v>
       </c>
@@ -3795,7 +3999,7 @@
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -3829,7 +4033,7 @@
       </c>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -3859,13 +4063,13 @@
       </c>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -3897,7 +4101,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -3931,7 +4135,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -3965,7 +4169,7 @@
       </c>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -3994,7 +4198,7 @@
         <v>11.398</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -4017,7 +4221,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -4040,7 +4244,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -4063,7 +4267,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -4097,7 +4301,7 @@
       </c>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -4152,25 +4356,25 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>440</v>
       </c>
@@ -4198,7 +4402,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -4230,7 +4434,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -4248,7 +4452,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -4287,7 +4491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -4305,7 +4509,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -4328,7 +4532,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -4363,7 +4567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -4398,7 +4602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -4433,7 +4637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -4468,7 +4672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -4500,7 +4704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -4535,7 +4739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -4570,7 +4774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -4605,7 +4809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -4634,7 +4838,7 @@
       </c>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -4657,7 +4861,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -4686,7 +4890,7 @@
       </c>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -4721,7 +4925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -4756,7 +4960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -4791,7 +4995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -4823,7 +5027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -4855,7 +5059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -4878,7 +5082,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -4910,7 +5114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -4928,7 +5132,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -4939,7 +5143,7 @@
         <v>35.770000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -4950,7 +5154,7 @@
         <v>78.876999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -4963,7 +5167,7 @@
         <v>49.64</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -4974,7 +5178,7 @@
         <v>1.9239999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -4985,7 +5189,7 @@
         <v>8.5749999999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>43</v>
       </c>
@@ -5003,7 +5207,7 @@
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -5035,7 +5239,7 @@
       <c r="M33" s="31"/>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -5063,13 +5267,13 @@
       <c r="M34" s="32"/>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -5101,7 +5305,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -5135,7 +5339,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -5169,7 +5373,7 @@
       </c>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -5198,7 +5402,7 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -5221,7 +5425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -5244,7 +5448,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -5267,7 +5471,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -5301,7 +5505,7 @@
       </c>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -5353,28 +5557,28 @@
       <selection activeCell="F10" sqref="F10"/>
       <selection pane="topRight" activeCell="F10" sqref="F10"/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>528</v>
       </c>
@@ -5402,7 +5606,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -5434,7 +5638,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -5452,7 +5656,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -5493,7 +5697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -5511,7 +5715,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -5543,7 +5747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -5574,7 +5778,7 @@
       </c>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -5609,7 +5813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -5644,7 +5848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -5675,7 +5879,7 @@
       </c>
       <c r="N10" s="25"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -5698,7 +5902,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -5727,7 +5931,7 @@
       </c>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -5762,7 +5966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -5797,7 +6001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -5826,7 +6030,7 @@
       </c>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -5858,7 +6062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -5893,7 +6097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -5924,7 +6128,7 @@
       </c>
       <c r="N18" s="25"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -5953,7 +6157,7 @@
       </c>
       <c r="N19" s="25"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -5982,7 +6186,7 @@
       </c>
       <c r="N20" s="25"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -6014,7 +6218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -6046,7 +6250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -6069,7 +6273,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -6095,7 +6299,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -6113,7 +6317,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -6127,7 +6331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -6141,7 +6345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -6157,7 +6361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -6171,7 +6375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -6185,7 +6389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="27"/>
@@ -6201,7 +6405,7 @@
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>43</v>
       </c>
@@ -6219,7 +6423,7 @@
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -6253,7 +6457,7 @@
       </c>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -6283,13 +6487,13 @@
       </c>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -6321,7 +6525,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -6355,7 +6559,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -6389,7 +6593,7 @@
       </c>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -6418,7 +6622,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -6441,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -6464,7 +6668,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -6487,7 +6691,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -6521,7 +6725,7 @@
       </c>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -6576,25 +6780,25 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>604</v>
       </c>
@@ -6622,7 +6826,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -6654,7 +6858,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -6672,7 +6876,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -6713,7 +6917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -6731,7 +6935,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -6763,7 +6967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -6794,7 +6998,7 @@
       </c>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -6829,7 +7033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -6864,7 +7068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -6899,7 +7103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -6931,7 +7135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -6966,7 +7170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -6997,7 +7201,7 @@
       </c>
       <c r="N13" s="25"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -7032,7 +7236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -7063,7 +7267,7 @@
       </c>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -7095,7 +7299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -7124,7 +7328,7 @@
       </c>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -7159,7 +7363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -7194,7 +7398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -7229,7 +7433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -7253,7 +7457,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -7285,7 +7489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -7317,7 +7521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -7349,7 +7553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -7367,7 +7571,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -7378,7 +7582,7 @@
         <v>0.191</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -7389,7 +7593,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -7402,7 +7606,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -7413,7 +7617,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -7424,7 +7628,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>43</v>
       </c>
@@ -7442,7 +7646,7 @@
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -7476,7 +7680,7 @@
       </c>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -7506,13 +7710,13 @@
       </c>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -7544,7 +7748,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -7578,7 +7782,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -7612,7 +7816,7 @@
       </c>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -7641,7 +7845,7 @@
         <v>4.867</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -7664,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -7687,7 +7891,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -7710,7 +7914,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -7744,7 +7948,7 @@
       </c>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -7799,25 +8003,25 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>616</v>
       </c>
@@ -7845,7 +8049,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -7877,7 +8081,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -7895,7 +8099,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -7936,7 +8140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -7954,7 +8158,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -7986,7 +8190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -8021,7 +8225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -8056,7 +8260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -8091,7 +8295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -8126,7 +8330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -8158,7 +8362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -8193,7 +8397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -8224,7 +8428,7 @@
       </c>
       <c r="N13" s="25"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -8255,7 +8459,7 @@
       </c>
       <c r="N14" s="25"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -8284,7 +8488,7 @@
       </c>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -8313,7 +8517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -8348,7 +8552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -8383,7 +8587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -8418,7 +8622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -8453,7 +8657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -8485,7 +8689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -8508,7 +8712,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -8537,7 +8741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -8569,7 +8773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -8587,7 +8791,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -8601,7 +8805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -8615,7 +8819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -8628,7 +8832,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -8639,7 +8843,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -8650,12 +8854,12 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -8689,7 +8893,7 @@
       </c>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -8719,13 +8923,13 @@
       </c>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -8757,7 +8961,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -8791,7 +8995,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -8825,7 +9029,7 @@
       </c>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -8854,7 +9058,7 @@
         <v>0.745</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -8877,7 +9081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -8900,7 +9104,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -8923,7 +9127,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -8957,7 +9161,7 @@
       </c>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -9012,25 +9216,25 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
-    <col min="4" max="4" width="8.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
+    <col min="4" max="4" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>620</v>
       </c>
@@ -9058,7 +9262,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -9090,7 +9294,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -9108,7 +9312,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -9149,7 +9353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -9167,7 +9371,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -9199,7 +9403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -9234,7 +9438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -9265,7 +9469,7 @@
       </c>
       <c r="N8" s="25"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -9296,7 +9500,7 @@
       </c>
       <c r="N9" s="25"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -9325,7 +9529,7 @@
       </c>
       <c r="N10" s="25"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -9357,7 +9561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -9392,7 +9596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -9423,7 +9627,7 @@
       </c>
       <c r="N13" s="25"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -9454,7 +9658,7 @@
       </c>
       <c r="N14" s="25"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -9483,7 +9687,7 @@
       </c>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -9515,7 +9719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -9550,7 +9754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -9585,7 +9789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -9616,7 +9820,7 @@
       </c>
       <c r="N19" s="25"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -9645,7 +9849,7 @@
       </c>
       <c r="N20" s="25"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -9674,7 +9878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -9697,7 +9901,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -9726,7 +9930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -9758,7 +9962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -9776,7 +9980,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -9785,7 +9989,7 @@
       </c>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -9794,7 +9998,7 @@
       </c>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -9805,7 +10009,7 @@
       </c>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -9816,7 +10020,7 @@
         <v>19394.486000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -9827,12 +10031,12 @@
         <v>2526.587</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -9866,7 +10070,7 @@
       </c>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -9896,13 +10100,13 @@
       </c>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -9934,7 +10138,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -9968,7 +10172,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -10002,7 +10206,7 @@
       </c>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -10031,7 +10235,7 @@
         <v>14.369</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -10054,7 +10258,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -10077,7 +10281,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -10100,7 +10304,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -10134,7 +10338,7 @@
       </c>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -10189,25 +10393,25 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>643</v>
       </c>
@@ -10235,7 +10439,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -10267,7 +10471,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -10285,7 +10489,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -10326,7 +10530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -10344,7 +10548,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -10376,7 +10580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -10407,7 +10611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -10442,7 +10646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -10477,7 +10681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -10512,7 +10716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -10544,7 +10748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -10577,7 +10781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -10612,7 +10816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -10647,7 +10851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -10680,7 +10884,7 @@
       </c>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -10703,7 +10907,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -10736,7 +10940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -10771,7 +10975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -10806,7 +11010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -10841,7 +11045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -10865,7 +11069,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -10897,7 +11101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -10920,7 +11124,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -10952,7 +11156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -10970,7 +11174,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -10981,7 +11185,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -10992,7 +11196,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -11005,7 +11209,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -11019,7 +11223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -11030,12 +11234,12 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -11069,7 +11273,7 @@
       </c>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -11099,13 +11303,13 @@
       </c>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -11137,7 +11341,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -11171,7 +11375,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -11205,7 +11409,7 @@
       </c>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -11234,7 +11438,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -11257,7 +11461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -11280,7 +11484,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -11303,7 +11507,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -11337,7 +11541,7 @@
       </c>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -11392,25 +11596,25 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>688</v>
       </c>
@@ -11438,7 +11642,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -11470,7 +11674,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -11488,7 +11692,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -11529,7 +11733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -11547,7 +11751,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -11579,7 +11783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -11614,7 +11818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -11649,7 +11853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -11684,7 +11888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -11719,7 +11923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -11751,7 +11955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -11786,7 +11990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -11821,7 +12025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -11856,7 +12060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -11885,7 +12089,7 @@
       </c>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -11911,7 +12115,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -11942,7 +12146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -11977,7 +12181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -12012,7 +12216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -12047,7 +12251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -12070,7 +12274,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -12093,7 +12297,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -12122,7 +12326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -12154,7 +12358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -12172,7 +12376,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -12186,7 +12390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -12200,7 +12404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -12216,7 +12420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -12227,7 +12431,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -12238,12 +12442,12 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -12277,7 +12481,7 @@
       </c>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -12307,13 +12511,13 @@
       </c>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -12345,7 +12549,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -12379,7 +12583,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -12413,7 +12617,7 @@
       </c>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -12442,7 +12646,7 @@
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -12465,7 +12669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -12488,7 +12692,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -12511,7 +12715,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -12545,7 +12749,7 @@
       </c>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -12600,25 +12804,25 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>703</v>
       </c>
@@ -12646,7 +12850,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -12678,7 +12882,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -12696,7 +12900,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -12737,7 +12941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -12755,7 +12959,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -12781,7 +12985,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -12816,7 +13020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -12851,7 +13055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -12886,7 +13090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -12921,7 +13125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -12953,7 +13157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -12988,7 +13192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -13023,7 +13227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -13058,7 +13262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -13087,7 +13291,7 @@
       </c>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -13113,7 +13317,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -13142,7 +13346,7 @@
       </c>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -13177,7 +13381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -13212,7 +13416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -13247,7 +13451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -13276,7 +13480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -13308,7 +13512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -13337,7 +13541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -13369,7 +13573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -13387,7 +13591,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -13398,7 +13602,7 @@
         <v>6.8150000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -13409,7 +13613,7 @@
         <v>39.292999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -13422,7 +13626,7 @@
         <v>13.085000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -13433,7 +13637,7 @@
         <v>5.5510000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -13444,12 +13648,12 @@
         <v>1.129</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>27</v>
       </c>
@@ -13478,7 +13682,7 @@
         <v>181.70500000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -13508,13 +13712,13 @@
       </c>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -13546,7 +13750,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -13580,7 +13784,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -13614,7 +13818,7 @@
       </c>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -13643,7 +13847,7 @@
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -13666,7 +13870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -13689,7 +13893,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -13712,7 +13916,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -13746,7 +13950,7 @@
       </c>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -13800,26 +14004,26 @@
       <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11" bestFit="1"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11" bestFit="1"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11" bestFit="1"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11" bestFit="1"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11" bestFit="1"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11" bestFit="1"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11" bestFit="1"/>
-    <col min="13" max="13" width="8.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="3"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11" bestFit="1"/>
+    <col min="13" max="13" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>76</v>
       </c>
@@ -13847,7 +14051,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -13879,7 +14083,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -13897,7 +14101,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -13938,7 +14142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -13956,7 +14160,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -13982,7 +14186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -14013,7 +14217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -14044,7 +14248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -14075,7 +14279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -14106,7 +14310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -14132,7 +14336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -14163,7 +14367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -14190,7 +14394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -14219,7 +14423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -14248,7 +14452,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -14271,7 +14475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -14300,7 +14504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -14331,7 +14535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -14362,7 +14566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -14393,7 +14597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -14415,7 +14619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -14440,7 +14644,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -14460,7 +14664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -14486,7 +14690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -14504,7 +14708,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -14512,7 +14716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -14520,7 +14724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -14530,7 +14734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -14538,7 +14742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -14546,12 +14750,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -14585,7 +14789,7 @@
       </c>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -14615,13 +14819,13 @@
       </c>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -14653,7 +14857,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -14687,7 +14891,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -14721,7 +14925,7 @@
       </c>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -14750,7 +14954,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -14773,7 +14977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -14796,7 +15000,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -14819,7 +15023,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -14853,7 +15057,7 @@
       </c>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -14908,25 +15112,25 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>724</v>
       </c>
@@ -14954,7 +15158,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -14986,7 +15190,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -15004,7 +15208,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -15043,7 +15247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -15061,7 +15265,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -15081,7 +15285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -15112,7 +15316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -15143,7 +15347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -15174,7 +15378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -15205,7 +15409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -15231,7 +15435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -15262,7 +15466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -15293,7 +15497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -15324,7 +15528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -15351,7 +15555,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -15368,7 +15572,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -15395,7 +15599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -15426,7 +15630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -15457,7 +15661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -15488,7 +15692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -15515,7 +15719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -15542,7 +15746,7 @@
       </c>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -15563,7 +15767,7 @@
       </c>
       <c r="M23" s="30"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -15593,7 +15797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -15611,7 +15815,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -15623,7 +15827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -15635,7 +15839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -15649,7 +15853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -15661,7 +15865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -15673,12 +15877,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>27</v>
       </c>
@@ -15705,7 +15909,7 @@
       </c>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -15733,13 +15937,13 @@
       <c r="M34" s="32"/>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -15771,7 +15975,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -15805,7 +16009,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -15839,7 +16043,7 @@
       </c>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -15868,7 +16072,7 @@
         <v>106.935</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -15891,7 +16095,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -15914,7 +16118,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -15937,7 +16141,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -15971,7 +16175,7 @@
       </c>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -16026,25 +16230,25 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>840</v>
       </c>
@@ -16072,7 +16276,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -16104,7 +16308,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -16122,7 +16326,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -16163,7 +16367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -16181,7 +16385,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -16213,7 +16417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -16248,7 +16452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -16283,7 +16487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -16318,7 +16522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -16347,7 +16551,7 @@
       </c>
       <c r="N10" s="25"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -16379,7 +16583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -16414,7 +16618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -16445,7 +16649,7 @@
       </c>
       <c r="N13" s="25"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -16478,7 +16682,7 @@
       </c>
       <c r="N14" s="25"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -16507,7 +16711,7 @@
       </c>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -16530,7 +16734,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -16561,7 +16765,7 @@
       </c>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -16596,7 +16800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -16631,7 +16835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -16660,7 +16864,7 @@
       </c>
       <c r="N20" s="25"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -16692,7 +16896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -16724,7 +16928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -16753,7 +16957,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -16785,7 +16989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -16803,7 +17007,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -16817,7 +17021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -16828,7 +17032,7 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -16841,7 +17045,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -16852,7 +17056,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -16863,12 +17067,12 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>27</v>
       </c>
@@ -16897,7 +17101,7 @@
         <v>300.209</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -16927,13 +17131,13 @@
       </c>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -16965,7 +17169,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -16999,7 +17203,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -17033,7 +17237,7 @@
       </c>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -17062,7 +17266,7 @@
         <v>3.141</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -17085,7 +17289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -17108,7 +17312,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -17131,7 +17335,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -17165,7 +17369,7 @@
       </c>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -17219,25 +17423,25 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>100</v>
       </c>
@@ -17265,7 +17469,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -17297,7 +17501,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -17315,7 +17519,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -17356,7 +17560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -17374,7 +17578,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -17400,7 +17604,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -17435,7 +17639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -17470,7 +17674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -17505,7 +17709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -17540,7 +17744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -17572,7 +17776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -17607,7 +17811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -17638,7 +17842,7 @@
       </c>
       <c r="N13" s="25"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -17669,7 +17873,7 @@
       </c>
       <c r="N14" s="25"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -17698,7 +17902,7 @@
       </c>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -17727,7 +17931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -17758,7 +17962,7 @@
       </c>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -17793,7 +17997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -17828,7 +18032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -17863,7 +18067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -17886,7 +18090,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -17912,7 +18116,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -17938,7 +18142,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -17970,7 +18174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -17988,7 +18192,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -18002,7 +18206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -18016,7 +18220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -18029,7 +18233,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -18040,7 +18244,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -18054,7 +18258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>43</v>
       </c>
@@ -18072,7 +18276,7 @@
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -18106,7 +18310,7 @@
       </c>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -18136,13 +18340,13 @@
       </c>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -18174,7 +18378,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -18208,7 +18412,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -18242,7 +18446,7 @@
       </c>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -18271,7 +18475,7 @@
         <v>1.1870000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -18294,7 +18498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -18317,7 +18521,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -18340,7 +18544,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -18374,7 +18578,7 @@
       </c>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -18429,25 +18633,25 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>124</v>
       </c>
@@ -18475,7 +18679,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -18507,7 +18711,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -18525,7 +18729,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -18560,7 +18764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -18578,7 +18782,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -18598,7 +18802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -18629,7 +18833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -18660,7 +18864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -18691,7 +18895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -18718,7 +18922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -18744,7 +18948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -18775,7 +18979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -18802,7 +19006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -18829,7 +19033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -18854,7 +19058,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -18871,7 +19075,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -18902,7 +19106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -18933,7 +19137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -18964,7 +19168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -18991,7 +19195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -19013,7 +19217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -19032,7 +19236,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -19049,7 +19253,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -19075,7 +19279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -19093,7 +19297,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -19101,7 +19305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -19109,7 +19313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -19119,7 +19323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -19127,7 +19331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -19135,12 +19339,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -19170,7 +19374,7 @@
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -19196,13 +19400,13 @@
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -19234,7 +19438,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -19264,7 +19468,7 @@
       <c r="M37" s="23"/>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -19294,7 +19498,7 @@
       <c r="M38" s="23"/>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -19317,7 +19521,7 @@
         <v>0.75700000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -19334,7 +19538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -19351,7 +19555,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -19368,7 +19572,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -19398,7 +19602,7 @@
       <c r="M43" s="27"/>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -19449,25 +19653,25 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>152</v>
       </c>
@@ -19495,7 +19699,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -19527,7 +19731,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -19545,7 +19749,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -19586,7 +19790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -19604,7 +19808,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -19636,7 +19840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -19671,7 +19875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -19706,7 +19910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -19741,7 +19945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -19776,7 +19980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -19808,7 +20012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -19843,7 +20047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -19874,7 +20078,7 @@
       </c>
       <c r="N13" s="25"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -19907,7 +20111,7 @@
       </c>
       <c r="N14" s="25"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -19936,7 +20140,7 @@
       </c>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -19968,7 +20172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -20003,7 +20207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -20038,7 +20242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -20073,7 +20277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -20108,7 +20312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -20134,7 +20338,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -20166,7 +20370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -20195,7 +20399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -20227,7 +20431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -20245,7 +20449,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -20256,7 +20460,7 @@
         <v>384.76400000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -20267,7 +20471,7 @@
         <v>366.21600000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -20280,7 +20484,7 @@
         <v>75.534000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -20291,7 +20495,7 @@
         <v>82.200999999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -20302,12 +20506,12 @@
         <v>57.886000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -20341,7 +20545,7 @@
       </c>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -20371,13 +20575,13 @@
       </c>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -20409,7 +20613,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -20443,7 +20647,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -20477,7 +20681,7 @@
       </c>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -20506,7 +20710,7 @@
         <v>17.913</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -20529,7 +20733,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -20552,7 +20756,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -20575,7 +20779,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -20609,7 +20813,7 @@
       </c>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -20664,25 +20868,25 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>233</v>
       </c>
@@ -20710,7 +20914,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -20742,7 +20946,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -20760,7 +20964,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -20801,7 +21005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -20819,7 +21023,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -20842,7 +21046,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -20877,7 +21081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -20912,7 +21116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -20947,7 +21151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -20982,7 +21186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -21008,7 +21212,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -21037,7 +21241,7 @@
       </c>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -21072,7 +21276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -21107,7 +21311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -21142,7 +21346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -21174,7 +21378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -21209,7 +21413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -21244,7 +21448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -21279,7 +21483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -21314,7 +21518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -21340,7 +21544,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -21366,7 +21570,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -21389,7 +21593,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -21421,7 +21625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -21439,7 +21643,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -21450,7 +21654,7 @@
         <v>409.73</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -21461,7 +21665,7 @@
         <v>203.529</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -21474,7 +21678,7 @@
         <v>659.51599999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -21485,7 +21689,7 @@
         <v>167.792</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -21496,12 +21700,12 @@
         <v>36.546999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -21535,7 +21739,7 @@
       </c>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -21565,13 +21769,13 @@
       </c>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -21603,7 +21807,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -21637,7 +21841,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -21671,7 +21875,7 @@
       </c>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -21700,7 +21904,7 @@
         <v>8.0359999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -21723,7 +21927,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -21746,7 +21950,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -21769,7 +21973,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -21803,7 +22007,7 @@
       </c>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -21858,25 +22062,25 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>246</v>
       </c>
@@ -21904,7 +22108,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -21936,7 +22140,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -21954,7 +22158,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -21995,7 +22199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -22013,7 +22217,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -22045,7 +22249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -22080,7 +22284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -22115,7 +22319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -22150,7 +22354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -22185,7 +22389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -22208,7 +22412,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -22237,7 +22441,7 @@
       </c>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -22268,7 +22472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -22299,7 +22503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -22328,7 +22532,7 @@
       </c>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -22360,7 +22564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -22395,7 +22599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -22430,7 +22634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -22465,7 +22669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -22500,7 +22704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -22532,7 +22736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -22564,7 +22768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -22596,7 +22800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -22628,7 +22832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -22646,7 +22850,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -22657,7 +22861,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -22668,7 +22872,7 @@
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -22681,7 +22885,7 @@
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -22692,7 +22896,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -22706,12 +22910,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -22745,7 +22949,7 @@
       </c>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -22775,13 +22979,13 @@
       </c>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -22813,7 +23017,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -22847,7 +23051,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -22881,7 +23085,7 @@
       </c>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -22910,7 +23114,7 @@
         <v>1.494</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -22933,7 +23137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -22956,7 +23160,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -22979,7 +23183,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -23013,7 +23217,7 @@
       </c>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -23068,25 +23272,25 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>268</v>
       </c>
@@ -23114,7 +23318,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -23146,7 +23350,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -23164,7 +23368,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -23203,7 +23407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -23221,7 +23425,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -23253,7 +23457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -23288,7 +23492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -23323,7 +23527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -23358,7 +23562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -23393,7 +23597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -23425,7 +23629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -23460,7 +23664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -23495,7 +23699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -23530,7 +23734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -23559,7 +23763,7 @@
       </c>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -23591,7 +23795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -23626,7 +23830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -23661,7 +23865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -23696,7 +23900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -23731,7 +23935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -23763,7 +23967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -23789,7 +23993,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -23812,7 +24016,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -23844,7 +24048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -23862,7 +24066,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -23873,7 +24077,7 @@
         <v>238.03399999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -23884,7 +24088,7 @@
         <v>52.646999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -23897,7 +24101,7 @@
         <v>153.548</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -23908,7 +24112,7 @@
         <v>19.297000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="26" t="s">
         <v>26</v>
@@ -23930,7 +24134,7 @@
       </c>
       <c r="N30" s="27"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="27"/>
@@ -23946,7 +24150,7 @@
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>43</v>
       </c>
@@ -23964,7 +24168,7 @@
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -23996,7 +24200,7 @@
       <c r="M33" s="31"/>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -24024,13 +24228,13 @@
       <c r="M34" s="32"/>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -24062,7 +24266,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -24096,7 +24300,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -24130,7 +24334,7 @@
       </c>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -24159,7 +24363,7 @@
         <v>0.874</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -24182,7 +24386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -24205,7 +24409,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -24228,7 +24432,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -24262,7 +24466,7 @@
       </c>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>
@@ -24317,25 +24521,25 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="11"/>
+    <col min="1" max="1" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="11"/>
-    <col min="7" max="7" width="7.5546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="11"/>
+    <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="11"/>
+    <col min="7" max="7" width="7.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
     <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11"/>
-    <col min="13" max="13" width="8.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>360</v>
       </c>
@@ -24363,7 +24567,7 @@
       <c r="M1" s="35"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -24395,7 +24599,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -24413,7 +24617,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
@@ -24451,7 +24655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
@@ -24469,7 +24673,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
@@ -24489,7 +24693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
@@ -24520,7 +24724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
@@ -24551,7 +24755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
@@ -24582,7 +24786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
@@ -24609,7 +24813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
@@ -24632,7 +24836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
@@ -24661,7 +24865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
@@ -24692,7 +24896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
@@ -24723,7 +24927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
@@ -24748,7 +24952,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
@@ -24768,7 +24972,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>10</v>
       </c>
@@ -24795,7 +24999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -24826,7 +25030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>12</v>
       </c>
@@ -24857,7 +25061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
@@ -24884,7 +25088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>19</v>
       </c>
@@ -24912,7 +25116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -24934,7 +25138,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
@@ -24957,7 +25161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
@@ -24983,7 +25187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
@@ -25001,7 +25205,7 @@
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -25009,7 +25213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -25017,7 +25221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>24</v>
       </c>
@@ -25027,7 +25231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -25035,7 +25239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -25043,7 +25247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>43</v>
       </c>
@@ -25061,7 +25265,7 @@
       <c r="M32" s="27"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26" t="s">
         <v>27</v>
@@ -25093,7 +25297,7 @@
       <c r="M33" s="27"/>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>28</v>
@@ -25121,13 +25325,13 @@
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="8"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="20" t="s">
@@ -25159,7 +25363,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="10" t="s">
         <v>32</v>
@@ -25193,7 +25397,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -25227,7 +25431,7 @@
       </c>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
@@ -25256,7 +25460,7 @@
         <v>33.893000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
@@ -25279,7 +25483,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
@@ -25302,7 +25506,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
@@ -25325,7 +25529,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26" t="s">
         <v>38</v>
@@ -25359,7 +25563,7 @@
       </c>
       <c r="N43" s="27"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>39</v>

--- a/Model building/Results 20.xlsx
+++ b/Model building/Results 20.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\pc\Dokumenter\MSc\Thesis\Model building\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A49B08-A327-4242-A2E6-C8D75616CADF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="1275" windowWidth="21600" windowHeight="11280" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="1275" windowWidth="21600" windowHeight="10575" tabRatio="640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="21" r:id="rId1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="71">
   <si>
     <t>Null Model</t>
   </si>
@@ -266,11 +265,14 @@
   <si>
     <t>All countries</t>
   </si>
+  <si>
+    <t>ESCS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -763,14 +765,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F4851D-80C2-4990-AB58-C13F9E65D56B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -780,10 +782,10 @@
     <col min="3" max="3" width="9.140625" style="11"/>
     <col min="4" max="4" width="8" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="11"/>
-    <col min="7" max="7" width="7.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.5703125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="11"/>
+    <col min="9" max="9" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="11" customWidth="1"/>
     <col min="11" max="11" width="3.5703125" style="11" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="11"/>
@@ -900,37 +902,37 @@
         <v>5</v>
       </c>
       <c r="F4" s="11">
-        <v>451.73500000000001</v>
+        <v>449.92399999999998</v>
       </c>
       <c r="G4" s="11">
-        <v>1.7729999999999999</v>
+        <v>1.728</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="11">
-        <v>445.11200000000002</v>
+        <v>444.23700000000002</v>
       </c>
       <c r="J4" s="11">
-        <v>2.6080000000000001</v>
+        <v>2.5960000000000001</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="11">
-        <v>491.35500000000002</v>
+        <v>484.48099999999999</v>
       </c>
       <c r="M4" s="11">
-        <v>4.1710000000000003</v>
+        <v>4.8419999999999996</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O4" s="11">
-        <v>396.42500000000001</v>
+        <v>392.88</v>
       </c>
       <c r="P4" s="11">
-        <v>14.348000000000001</v>
+        <v>14.074</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>5</v>
@@ -962,7 +964,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="11">
-        <v>-8.1000000000000003E-2</v>
+        <v>-6.7000000000000004E-2</v>
       </c>
       <c r="G6" s="11">
         <v>8.0000000000000002E-3</v>
@@ -971,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="11">
-        <v>-3.5999999999999997E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="J6" s="11">
         <v>1.0999999999999999E-2</v>
@@ -980,19 +982,19 @@
         <v>8</v>
       </c>
       <c r="L6" s="11">
-        <v>-3.1E-2</v>
+        <v>-0.03</v>
       </c>
       <c r="M6" s="11">
-        <v>1.2E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O6" s="11">
-        <v>-7.0000000000000001E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="P6" s="11">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1003,7 +1005,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14">
-        <v>-0.14099999999999999</v>
+        <v>-0.125</v>
       </c>
       <c r="G7" s="14">
         <v>8.0000000000000002E-3</v>
@@ -1012,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="14">
-        <v>-9.9000000000000005E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="J7" s="14">
         <v>1.0999999999999999E-2</v>
@@ -1021,19 +1023,19 @@
         <v>5</v>
       </c>
       <c r="L7" s="14">
-        <v>-9.5000000000000001E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="M7" s="14">
-        <v>1.2E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="14">
-        <v>-7.8E-2</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="P7" s="14">
-        <v>1.6E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="Q7" s="14" t="s">
         <v>5</v>
@@ -1047,7 +1049,7 @@
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25">
-        <v>5.8999999999999997E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="G8" s="25">
         <v>3.0000000000000001E-3</v>
@@ -1056,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="25">
-        <v>6.4000000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="J8" s="25">
         <v>4.0000000000000001E-3</v>
@@ -1065,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="L8" s="25">
-        <v>6.4000000000000001E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="M8" s="25">
         <v>4.0000000000000001E-3</v>
@@ -1074,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="25">
-        <v>7.0999999999999994E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="P8" s="25">
         <v>5.0000000000000001E-3</v>
@@ -1100,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="25">
-        <v>5.8000000000000003E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J9" s="25">
         <v>3.0000000000000001E-3</v>
@@ -1109,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="L9" s="25">
-        <v>5.6000000000000001E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="M9" s="25">
         <v>3.0000000000000001E-3</v>
@@ -1118,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="O9" s="25">
-        <v>5.8000000000000003E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="P9" s="25">
         <v>5.0000000000000001E-3</v>
@@ -1135,16 +1137,16 @@
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G10" s="25">
         <v>2E-3</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I10" s="25">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J10" s="25">
         <v>2E-3</v>
@@ -1153,7 +1155,7 @@
         <v>8</v>
       </c>
       <c r="L10" s="25">
-        <v>8.0000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M10" s="25">
         <v>2E-3</v>
@@ -1162,7 +1164,7 @@
         <v>5</v>
       </c>
       <c r="O10" s="25">
-        <v>1.4E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="P10" s="25">
         <v>2E-3</v>
@@ -1176,7 +1178,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="11">
-        <v>9.8000000000000004E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="G11" s="11">
         <v>8.0000000000000002E-3</v>
@@ -1185,28 +1187,28 @@
         <v>5</v>
       </c>
       <c r="I11" s="11">
-        <v>6.9000000000000006E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="J11" s="11">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="L11" s="11">
-        <v>6.2E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="M11" s="11">
-        <v>1.0999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O11" s="11">
-        <v>8.4000000000000005E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="P11" s="11">
-        <v>8.9999999999999993E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="Q11" s="11" t="s">
         <v>5</v>
@@ -1220,37 +1222,37 @@
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14">
-        <v>7.9000000000000001E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="G12" s="14">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>5</v>
       </c>
       <c r="I12" s="14">
-        <v>5.8999999999999997E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="J12" s="14">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>5</v>
       </c>
       <c r="L12" s="14">
-        <v>5.3999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="M12" s="14">
-        <v>1.0999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="N12" s="14" t="s">
         <v>5</v>
       </c>
       <c r="O12" s="14">
-        <v>7.0999999999999994E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="P12" s="14">
-        <v>8.9999999999999993E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="Q12" s="14" t="s">
         <v>5</v>
@@ -1264,7 +1266,7 @@
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G13" s="25">
         <v>2E-3</v>
@@ -1282,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="25">
-        <v>8.0000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="M13" s="25">
         <v>2E-3</v>
@@ -1294,10 +1296,10 @@
         <v>1.2E-2</v>
       </c>
       <c r="P13" s="25">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="Q13" s="25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1308,7 +1310,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25">
-        <v>1.9E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G14" s="25">
         <v>2E-3</v>
@@ -1326,7 +1328,7 @@
         <v>5</v>
       </c>
       <c r="L14" s="25">
-        <v>8.9999999999999993E-3</v>
+        <v>0.01</v>
       </c>
       <c r="M14" s="25">
         <v>2E-3</v>
@@ -1373,7 +1375,7 @@
       </c>
       <c r="N15" s="25"/>
       <c r="O15" s="25">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="P15" s="25">
         <v>1E-3</v>
@@ -1385,31 +1387,31 @@
         <v>15</v>
       </c>
       <c r="F16" s="11">
-        <v>1.4E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G16" s="11">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I16" s="11">
-        <v>1.4999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="J16" s="11">
         <v>0.01</v>
       </c>
       <c r="L16" s="11">
-        <v>8.9999999999999993E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M16" s="11">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="O16" s="11">
-        <v>3.5999999999999997E-2</v>
+        <v>0.03</v>
       </c>
       <c r="P16" s="11">
-        <v>1.4E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="Q16" s="11" t="s">
         <v>9</v>
@@ -1423,37 +1425,33 @@
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14">
-        <v>-0.02</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="G17" s="14">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I17" s="14">
-        <v>-1.9E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="J17" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>16</v>
-      </c>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K17" s="14"/>
       <c r="L17" s="14">
-        <v>-2.1999999999999999E-2</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="M17" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>9</v>
-      </c>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N17" s="14"/>
       <c r="O17" s="14">
-        <v>-4.0000000000000001E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="P17" s="14">
-        <v>1.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="Q17" s="14"/>
     </row>
@@ -1465,16 +1463,16 @@
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25">
-        <v>3.4000000000000002E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G18" s="25">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H18" s="25" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="25">
-        <v>3.4000000000000002E-2</v>
+        <v>0.03</v>
       </c>
       <c r="J18" s="25">
         <v>3.0000000000000001E-3</v>
@@ -1483,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="L18" s="25">
-        <v>3.1E-2</v>
+        <v>0.03</v>
       </c>
       <c r="M18" s="25">
         <v>3.0000000000000001E-3</v>
@@ -1492,10 +1490,10 @@
         <v>5</v>
       </c>
       <c r="O18" s="25">
-        <v>0.04</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="P18" s="25">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="Q18" s="25" t="s">
         <v>5</v>
@@ -1509,7 +1507,7 @@
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25">
-        <v>0.03</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G19" s="25">
         <v>2E-3</v>
@@ -1518,25 +1516,25 @@
         <v>5</v>
       </c>
       <c r="I19" s="25">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J19" s="25">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="K19" s="25" t="s">
         <v>5</v>
       </c>
       <c r="L19" s="25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M19" s="25">
+        <v>2E-3</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="25">
         <v>2.4E-2</v>
-      </c>
-      <c r="M19" s="25">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="O19" s="25">
-        <v>2.5999999999999999E-2</v>
       </c>
       <c r="P19" s="25">
         <v>3.0000000000000001E-3</v>
@@ -1553,16 +1551,16 @@
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G20" s="25">
         <v>1E-3</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I20" s="25">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J20" s="25">
         <v>2E-3</v>
@@ -1571,16 +1569,16 @@
         <v>8</v>
       </c>
       <c r="L20" s="25">
-        <v>7.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M20" s="25">
         <v>2E-3</v>
       </c>
       <c r="N20" s="25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O20" s="25">
-        <v>1.4E-2</v>
+        <v>0.01</v>
       </c>
       <c r="P20" s="25">
         <v>2E-3</v>
@@ -1594,13 +1592,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="11">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G21" s="11">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I21" s="15">
-        <v>-3.9E-2</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="J21" s="15">
         <v>1.2E-2</v>
@@ -1609,7 +1607,7 @@
         <v>8</v>
       </c>
       <c r="L21" s="15">
-        <v>-4.1000000000000002E-2</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="M21" s="15">
         <v>1.2E-2</v>
@@ -1618,10 +1616,10 @@
         <v>8</v>
       </c>
       <c r="O21" s="15">
-        <v>-3.9E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="P21" s="15">
-        <v>1.4E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="Q21" s="11" t="s">
         <v>8</v>
@@ -1635,22 +1633,22 @@
         <v>0.08</v>
       </c>
       <c r="G22" s="11">
-        <v>8.0000000000000002E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I22" s="15">
-        <v>1.4E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="J22" s="15">
         <v>1.2E-2</v>
       </c>
       <c r="L22" s="15">
-        <v>1.7000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="M22" s="15">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O22" s="15">
         <v>-2.1000000000000001E-2</v>
@@ -1667,57 +1665,60 @@
         <v>18</v>
       </c>
       <c r="F23" s="11">
-        <v>-0.01</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="G23" s="11">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="H23" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="I23" s="11">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="J23" s="11">
         <v>0.01</v>
       </c>
       <c r="L23" s="11">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="M23" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="O23" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="P23" s="11">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="O23" s="11">
-        <v>2.3E-2</v>
-      </c>
-      <c r="P23" s="11">
-        <v>1.2E-2</v>
-      </c>
       <c r="Q23" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F24" s="11">
-        <v>0.46</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="G24" s="11">
-        <v>7.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="11">
-        <v>0.26200000000000001</v>
+        <v>0.245</v>
       </c>
       <c r="J24" s="11">
-        <v>1.4999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>5</v>
       </c>
       <c r="L24" s="11">
-        <v>0.25700000000000001</v>
+        <v>0.245</v>
       </c>
       <c r="M24" s="11">
         <v>1.6E-2</v>
@@ -1726,10 +1727,10 @@
         <v>5</v>
       </c>
       <c r="O24" s="11">
-        <v>0.20799999999999999</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="P24" s="11">
-        <v>1.9E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="Q24" s="11" t="s">
         <v>5</v>
@@ -1761,19 +1762,19 @@
         <v>22</v>
       </c>
       <c r="L26" s="11">
-        <v>-0.249</v>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="M26" s="11">
-        <v>0.06</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="N26" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O26" s="11">
-        <v>-0.25900000000000001</v>
+        <v>-0.27900000000000003</v>
       </c>
       <c r="P26" s="11">
-        <v>7.0999999999999994E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="Q26" s="11" t="s">
         <v>5</v>
@@ -1784,19 +1785,19 @@
         <v>23</v>
       </c>
       <c r="L27" s="11">
-        <v>0.29799999999999999</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="M27" s="11">
-        <v>6.5000000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="N27" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O27" s="11">
-        <v>0.441</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="P27" s="11">
-        <v>6.5000000000000002E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="Q27" s="11" t="s">
         <v>5</v>
@@ -1809,22 +1810,19 @@
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="L28" s="11">
-        <v>-0.32</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="M28" s="11">
-        <v>5.5E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="N28" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O28" s="11">
-        <v>-0.16400000000000001</v>
+        <v>-0.10199999999999999</v>
       </c>
       <c r="P28" s="11">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="Q28" s="11" t="s">
-        <v>8</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -1832,19 +1830,19 @@
         <v>25</v>
       </c>
       <c r="L29" s="11">
-        <v>-0.29899999999999999</v>
+        <v>-0.28399999999999997</v>
       </c>
       <c r="M29" s="11">
-        <v>3.9E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="N29" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O29" s="11">
-        <v>-0.184</v>
+        <v>-0.157</v>
       </c>
       <c r="P29" s="11">
-        <v>4.1000000000000002E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="Q29" s="11" t="s">
         <v>5</v>
@@ -1855,7 +1853,7 @@
         <v>26</v>
       </c>
       <c r="L30" s="11">
-        <v>-0.121</v>
+        <v>-0.111</v>
       </c>
       <c r="M30" s="11">
         <v>2.8000000000000001E-2</v>
@@ -1864,10 +1862,10 @@
         <v>5</v>
       </c>
       <c r="O30" s="11">
-        <v>7.0000000000000001E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="P30" s="11">
-        <v>7.6999999999999999E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -1896,10 +1894,10 @@
         <v>68</v>
       </c>
       <c r="O32" s="11">
-        <v>0.69899999999999995</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="P32" s="11">
-        <v>8.8999999999999996E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="Q32" s="11" t="s">
         <v>5</v>
@@ -1916,38 +1914,38 @@
         <v>27</v>
       </c>
       <c r="C35" s="27">
-        <v>6117.3670000000002</v>
+        <v>6117.3689999999997</v>
       </c>
       <c r="D35" s="27">
         <v>292.91199999999998</v>
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="27">
-        <v>7450.9179999999997</v>
+        <v>7789.9570000000003</v>
       </c>
       <c r="G35" s="27">
-        <v>110.105</v>
+        <v>111.176</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="27">
-        <v>5656.8310000000001</v>
+        <v>5760.9390000000003</v>
       </c>
       <c r="J35" s="27">
-        <v>127.946</v>
+        <v>129.51900000000001</v>
       </c>
       <c r="K35" s="27"/>
       <c r="L35" s="27">
-        <v>5645.8720000000003</v>
+        <v>5760.9690000000001</v>
       </c>
       <c r="M35" s="27">
-        <v>142.47399999999999</v>
+        <v>129.51499999999999</v>
       </c>
       <c r="N35" s="27"/>
       <c r="O35" s="27">
-        <v>5546.0590000000002</v>
+        <v>5742.1440000000002</v>
       </c>
       <c r="P35" s="27">
-        <v>220.578</v>
+        <v>249.886</v>
       </c>
       <c r="Q35" s="27"/>
     </row>
@@ -1957,34 +1955,34 @@
         <v>28</v>
       </c>
       <c r="C36" s="27">
-        <v>2657.4479999999999</v>
+        <v>2657.4430000000002</v>
       </c>
       <c r="D36" s="27">
-        <v>329.29599999999999</v>
+        <v>329.29399999999998</v>
       </c>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27">
-        <v>3113.0729999999999</v>
+        <v>3251.7449999999999</v>
       </c>
       <c r="J36" s="27">
-        <v>192.25200000000001</v>
+        <v>195.25800000000001</v>
       </c>
       <c r="K36" s="27"/>
       <c r="L36" s="27">
-        <v>1310.682</v>
+        <v>1621.6949999999999</v>
       </c>
       <c r="M36" s="27">
-        <v>134.083</v>
+        <v>142.679</v>
       </c>
       <c r="N36" s="27"/>
       <c r="O36" s="27">
-        <v>973.04</v>
+        <v>1064.1089999999999</v>
       </c>
       <c r="P36" s="27">
-        <v>126.85299999999999</v>
+        <v>130.85400000000001</v>
       </c>
       <c r="Q36" s="27"/>
     </row>
@@ -2010,10 +2008,10 @@
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
       <c r="O37" s="19">
-        <v>698.21</v>
+        <v>715.69200000000001</v>
       </c>
       <c r="P37" s="19">
-        <v>212.499</v>
+        <v>211.94499999999999</v>
       </c>
       <c r="Q37" s="19"/>
     </row>
@@ -2068,38 +2066,38 @@
         <v>32</v>
       </c>
       <c r="C40" s="23">
-        <v>1408122.2949999999</v>
+        <v>1408122.2930000001</v>
       </c>
       <c r="D40" s="23">
-        <v>377.19900000000001</v>
+        <v>377.19799999999998</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="23">
-        <v>3227747.2170000002</v>
+        <v>3516405.7230000002</v>
       </c>
       <c r="G40" s="23">
-        <v>868.471</v>
+        <v>1347.971</v>
       </c>
       <c r="H40" s="23"/>
       <c r="I40" s="23">
-        <v>3260162.4759999998</v>
+        <v>3539126.6170000001</v>
       </c>
       <c r="J40" s="23">
-        <v>1165.9337</v>
+        <v>1692.1510000000001</v>
       </c>
       <c r="K40" s="23"/>
       <c r="L40" s="23">
-        <v>2749224.1949999998</v>
+        <v>3497150.173</v>
       </c>
       <c r="M40" s="23">
-        <v>1145.789</v>
+        <v>1608.317</v>
       </c>
       <c r="N40" s="23"/>
       <c r="O40" s="23">
-        <v>3005059.3020000001</v>
+        <v>3886028.93</v>
       </c>
       <c r="P40" s="23">
-        <v>434.31</v>
+        <v>616.88</v>
       </c>
       <c r="Q40" s="23"/>
     </row>
@@ -2109,38 +2107,38 @@
         <v>33</v>
       </c>
       <c r="C41" s="23">
-        <v>1408161.098</v>
+        <v>1408161.0959999999</v>
       </c>
       <c r="D41" s="23">
-        <v>377.19900000000001</v>
+        <v>377.19799999999998</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23">
-        <v>3228090.858</v>
+        <v>3516750.6779999998</v>
       </c>
       <c r="G41" s="23">
-        <v>868.471</v>
+        <v>1347.971</v>
       </c>
       <c r="H41" s="23"/>
       <c r="I41" s="23">
-        <v>3260706.5729999999</v>
+        <v>3539672.7960000001</v>
       </c>
       <c r="J41" s="23">
-        <v>1165.9369999999999</v>
+        <v>1592.1510000000001</v>
       </c>
       <c r="K41" s="23"/>
       <c r="L41" s="23">
-        <v>2749702.875</v>
+        <v>3497638.86</v>
       </c>
       <c r="M41" s="23">
-        <v>1145.789</v>
+        <v>1608.317</v>
       </c>
       <c r="N41" s="23"/>
       <c r="O41" s="23">
-        <v>3005591.52</v>
+        <v>3886572.1770000001</v>
       </c>
       <c r="P41" s="23">
-        <v>434.31</v>
+        <v>616.88</v>
       </c>
       <c r="Q41" s="23"/>
     </row>
@@ -2148,29 +2146,35 @@
       <c r="B42" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="C42" s="11">
+        <v>30.123999999999999</v>
+      </c>
+      <c r="D42" s="11">
+        <v>3.7570000000000001</v>
+      </c>
       <c r="F42" s="11">
-        <v>1706.2809999999999</v>
+        <v>1862.93</v>
       </c>
       <c r="G42" s="11">
-        <v>0.77300000000000002</v>
+        <v>27.468</v>
       </c>
       <c r="I42" s="11">
-        <v>1017.0309999999999</v>
+        <v>1119.883</v>
       </c>
       <c r="J42" s="11">
-        <v>1.216</v>
+        <v>18.015999999999998</v>
       </c>
       <c r="L42" s="11">
-        <v>988.84199999999998</v>
+        <v>1229.9749999999999</v>
       </c>
       <c r="M42" s="11">
-        <v>0.91700000000000004</v>
+        <v>18.547000000000001</v>
       </c>
       <c r="O42" s="11">
-        <v>949.875</v>
+        <v>860.68299999999999</v>
       </c>
       <c r="P42" s="11">
-        <v>0.93700000000000006</v>
+        <v>15.789</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -2184,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="11">
-        <v>2.1000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="J43" s="11">
         <v>0</v>
@@ -2196,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="11">
-        <v>1.7000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="P43" s="11">
         <v>0</v>
@@ -2207,25 +2211,25 @@
         <v>36</v>
       </c>
       <c r="F44" s="11">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="G44" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I44" s="11">
         <v>0.83099999999999996</v>
       </c>
-      <c r="G44" s="11">
-        <v>1E-3</v>
-      </c>
-      <c r="I44" s="11">
-        <v>0.83499999999999996</v>
-      </c>
       <c r="J44" s="11">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="L44" s="11">
         <v>0.81499999999999995</v>
       </c>
       <c r="M44" s="11">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O44" s="11">
-        <v>0.82299999999999995</v>
+        <v>0.85</v>
       </c>
       <c r="P44" s="11">
         <v>2E-3</v>
@@ -2236,28 +2240,28 @@
         <v>37</v>
       </c>
       <c r="F45" s="11">
-        <v>0.79700000000000004</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G45" s="11">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I45" s="11">
-        <v>0.57099999999999995</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="J45" s="11">
-        <v>3.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="L45" s="11">
         <v>0.59399999999999997</v>
       </c>
       <c r="M45" s="11">
-        <v>3.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O45" s="11">
-        <v>0.66200000000000003</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="P45" s="11">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -2265,32 +2269,36 @@
       <c r="B46" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="C46" s="27">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D46" s="27">
+        <v>2E-3</v>
+      </c>
       <c r="E46" s="27"/>
       <c r="F46" s="27">
-        <v>5.1999999999999998E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="G46" s="27">
         <v>0</v>
       </c>
       <c r="H46" s="27"/>
       <c r="I46" s="27">
-        <v>4.5999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="J46" s="27">
         <v>0</v>
       </c>
       <c r="K46" s="27"/>
       <c r="L46" s="27">
-        <v>4.7E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M46" s="27">
         <v>0</v>
       </c>
       <c r="N46" s="27"/>
       <c r="O46" s="27">
-        <v>4.2999999999999997E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="P46" s="27">
         <v>0</v>
@@ -2302,8 +2310,12 @@
       <c r="B47" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
+      <c r="C47" s="27">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D47" s="27">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="E47" s="27"/>
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
@@ -2312,21 +2324,21 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="J47" s="27">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="K47" s="27"/>
       <c r="L47" s="27">
-        <v>7.1999999999999995E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="M47" s="27">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N47" s="27"/>
       <c r="O47" s="27">
-        <v>0.06</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="P47" s="27">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="Q47" s="27"/>
     </row>
@@ -2335,8 +2347,12 @@
       <c r="B48" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
+      <c r="C48" s="19">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="D48" s="19">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
@@ -2348,10 +2364,10 @@
       <c r="M48" s="19"/>
       <c r="N48" s="19"/>
       <c r="O48" s="19">
-        <v>0.27900000000000003</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="P48" s="19">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="Q48" s="19"/>
     </row>
@@ -2370,7 +2386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82BA664-5BFD-4584-901E-4E115AE15449}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3138,7 +3154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8880E970-FBCA-47E4-96C7-FF2A26A3D137}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4345,7 +4361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4998C18F-23F0-496C-92E6-D0C9725AA44B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5549,7 +5565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711747C5-4812-404C-A975-2FE4A1BB38CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6769,7 +6785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8918222-85D2-449B-8A18-73485E61711E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7992,7 +8008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796CB5DF-D73E-45ED-8F43-E9440DD9A3F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9205,7 +9221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB94F20-E3CE-4756-A34F-B261DEC836B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10382,7 +10398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F48C321-BCA3-4D4B-9401-D8A384CBD26D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11585,7 +11601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F878E3BA-8E2E-4762-96F8-C4FCC579D537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12793,7 +12809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DD9E6F-5DC3-40EC-B7BB-5197EF2F2C30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13994,14 +14010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -14795,7 +14811,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="19">
-        <v>3826.22</v>
+        <v>3826.2190000000001</v>
       </c>
       <c r="D34" s="19">
         <v>304.05099999999999</v>
@@ -15101,7 +15117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896B5996-A248-4FFB-BE2F-226D0C5F7301}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16219,7 +16235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8F8887-EE9E-4567-BCAF-768E7BCF4F0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17413,7 +17429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE13F8A-181A-4E87-BD2E-529BD8B5AD6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18622,7 +18638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8312C19-C14A-4C5D-B16C-3F63EB9485EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19642,7 +19658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8260F7-D0C9-4EC5-A190-C90A3244D50D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20857,7 +20873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE205F-2DA1-4524-A803-B809E7BA12EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22051,7 +22067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0FC168-6698-458E-BEAA-5263CC7A0F1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23261,7 +23277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C61AF70-8E80-4AE9-86CA-B9954E5AC076}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24510,7 +24526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45D9552-CAB9-4225-A20D-6005283A44DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Model building/Results 20.xlsx
+++ b/Model building/Results 20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\pc\Dokumenter\MSc\Thesis\Model building\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5032A9AE-EA15-4E53-9B54-52CB3294AFDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A56EE87-E9ED-415F-9F31-582A56B506DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" tabRatio="640" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14715" yWindow="4035" windowWidth="15960" windowHeight="10170" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="21" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="71">
   <si>
     <t>Null Model</t>
   </si>
@@ -766,11 +766,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -900,37 +900,37 @@
         <v>5</v>
       </c>
       <c r="F4" s="11">
-        <v>449.92399999999998</v>
+        <v>449.92</v>
       </c>
       <c r="G4" s="11">
-        <v>1.728</v>
+        <v>1.726</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="11">
-        <v>444.23700000000002</v>
+        <v>444.21499999999997</v>
       </c>
       <c r="J4" s="11">
-        <v>2.5960000000000001</v>
+        <v>2.5950000000000002</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="11">
-        <v>484.48099999999999</v>
+        <v>484.52</v>
       </c>
       <c r="M4" s="11">
-        <v>4.8419999999999996</v>
+        <v>4.8730000000000002</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O4" s="11">
-        <v>392.88</v>
+        <v>392.90699999999998</v>
       </c>
       <c r="P4" s="11">
-        <v>14.074</v>
+        <v>14.073</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>5</v>
@@ -971,7 +971,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="11">
-        <v>-0.03</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="J6" s="11">
         <v>1.0999999999999999E-2</v>
@@ -1003,7 +1003,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14">
-        <v>-0.125</v>
+        <v>-0.124</v>
       </c>
       <c r="G7" s="14">
         <v>8.0000000000000002E-3</v>
@@ -1047,7 +1047,7 @@
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25">
-        <v>5.8000000000000003E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="G8" s="25">
         <v>3.0000000000000001E-3</v>
@@ -1065,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="L8" s="25">
-        <v>6.0999999999999999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="M8" s="25">
         <v>4.0000000000000001E-3</v>
@@ -1091,7 +1091,7 @@
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25">
-        <v>5.5E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="G9" s="25">
         <v>3.0000000000000001E-3</v>
@@ -1138,7 +1138,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G10" s="25">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>16</v>
@@ -1176,16 +1176,16 @@
         <v>14</v>
       </c>
       <c r="F11" s="11">
-        <v>7.8E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="G11" s="11">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I11" s="11">
-        <v>5.6000000000000001E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="J11" s="11">
         <v>8.9999999999999993E-3</v>
@@ -1194,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="L11" s="11">
-        <v>5.6000000000000001E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="M11" s="11">
         <v>8.9999999999999993E-3</v>
@@ -1264,7 +1264,7 @@
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G13" s="25">
         <v>2E-3</v>
@@ -1308,7 +1308,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G14" s="25">
         <v>2E-3</v>
@@ -1385,7 +1385,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="11">
-        <v>1.6E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G16" s="11">
         <v>8.0000000000000002E-3</v>
@@ -1400,7 +1400,7 @@
         <v>0.01</v>
       </c>
       <c r="L16" s="11">
-        <v>1.4999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="M16" s="11">
         <v>0.01</v>
@@ -1461,10 +1461,10 @@
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25">
-        <v>0.03</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G18" s="25">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H18" s="25" t="s">
         <v>5</v>
@@ -1617,7 +1617,7 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="P21" s="15">
-        <v>1.2999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Q21" s="11" t="s">
         <v>8</v>
@@ -1652,7 +1652,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
       <c r="P22" s="15">
-        <v>1.0999999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="Q22" s="11" t="s">
         <v>9</v>
@@ -1698,7 +1698,7 @@
         <v>69</v>
       </c>
       <c r="F24" s="11">
-        <v>0.44800000000000001</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="G24" s="11">
         <v>8.0000000000000002E-3</v>
@@ -1792,10 +1792,10 @@
         <v>5</v>
       </c>
       <c r="O27" s="11">
-        <v>0.41099999999999998</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="P27" s="11">
-        <v>5.0999999999999997E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="Q27" s="11" t="s">
         <v>5</v>
@@ -1817,10 +1817,13 @@
         <v>5</v>
       </c>
       <c r="O28" s="11">
-        <v>-0.10199999999999999</v>
+        <v>-0.108</v>
       </c>
       <c r="P28" s="11">
         <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -1860,7 +1863,7 @@
         <v>5</v>
       </c>
       <c r="O30" s="11">
-        <v>-4.0000000000000001E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="P30" s="11">
         <v>0.06</v>
@@ -1919,31 +1922,31 @@
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="27">
-        <v>7789.9570000000003</v>
+        <v>7789.8990000000003</v>
       </c>
       <c r="G35" s="27">
-        <v>111.176</v>
+        <v>111.17</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="27">
-        <v>5760.9390000000003</v>
+        <v>5760.9350000000004</v>
       </c>
       <c r="J35" s="27">
-        <v>129.51900000000001</v>
+        <v>129.518</v>
       </c>
       <c r="K35" s="27"/>
       <c r="L35" s="27">
-        <v>5760.9690000000001</v>
+        <v>5760.9769999999999</v>
       </c>
       <c r="M35" s="27">
-        <v>129.51499999999999</v>
+        <v>129.51900000000001</v>
       </c>
       <c r="N35" s="27"/>
       <c r="O35" s="27">
-        <v>5742.1440000000002</v>
+        <v>5742.134</v>
       </c>
       <c r="P35" s="27">
-        <v>249.886</v>
+        <v>249.88499999999999</v>
       </c>
       <c r="Q35" s="27"/>
     </row>
@@ -1963,24 +1966,24 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27">
-        <v>3251.7449999999999</v>
+        <v>3252.3180000000002</v>
       </c>
       <c r="J36" s="27">
-        <v>195.25800000000001</v>
+        <v>195.28200000000001</v>
       </c>
       <c r="K36" s="27"/>
       <c r="L36" s="27">
-        <v>1621.6949999999999</v>
+        <v>1614.2449999999999</v>
       </c>
       <c r="M36" s="27">
-        <v>142.679</v>
+        <v>143.56399999999999</v>
       </c>
       <c r="N36" s="27"/>
       <c r="O36" s="27">
-        <v>1064.1089999999999</v>
+        <v>1065.759</v>
       </c>
       <c r="P36" s="27">
-        <v>130.85400000000001</v>
+        <v>131.495</v>
       </c>
       <c r="Q36" s="27"/>
     </row>
@@ -2006,10 +2009,10 @@
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
       <c r="O37" s="19">
-        <v>715.69200000000001</v>
+        <v>715.41</v>
       </c>
       <c r="P37" s="19">
-        <v>211.94499999999999</v>
+        <v>211.88499999999999</v>
       </c>
       <c r="Q37" s="19"/>
     </row>
@@ -2071,31 +2074,31 @@
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="23">
-        <v>3516405.7230000002</v>
+        <v>3428325.0959999999</v>
       </c>
       <c r="G40" s="23">
-        <v>1347.971</v>
+        <v>1724.2909999999999</v>
       </c>
       <c r="H40" s="23"/>
       <c r="I40" s="23">
-        <v>3539126.6170000001</v>
+        <v>3467536.6469999999</v>
       </c>
       <c r="J40" s="23">
-        <v>1692.1510000000001</v>
+        <v>2082.5210000000002</v>
       </c>
       <c r="K40" s="23"/>
       <c r="L40" s="23">
-        <v>3497150.173</v>
+        <v>3425559.9890000001</v>
       </c>
       <c r="M40" s="23">
-        <v>1608.317</v>
+        <v>2005.96</v>
       </c>
       <c r="N40" s="23"/>
       <c r="O40" s="23">
-        <v>3886028.93</v>
+        <v>3775763.693</v>
       </c>
       <c r="P40" s="23">
-        <v>616.88</v>
+        <v>845.58699999999999</v>
       </c>
       <c r="Q40" s="23"/>
     </row>
@@ -2112,31 +2115,31 @@
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23">
-        <v>3516750.6779999998</v>
+        <v>3428813.7829999998</v>
       </c>
       <c r="G41" s="23">
-        <v>1347.971</v>
+        <v>1724.2909999999999</v>
       </c>
       <c r="H41" s="23"/>
       <c r="I41" s="23">
-        <v>3539672.7960000001</v>
+        <v>3468159.483</v>
       </c>
       <c r="J41" s="23">
-        <v>1592.1510000000001</v>
+        <v>2082.5210000000002</v>
       </c>
       <c r="K41" s="23"/>
       <c r="L41" s="23">
-        <v>3497638.86</v>
+        <v>3426125</v>
       </c>
       <c r="M41" s="23">
-        <v>1608.317</v>
+        <v>332</v>
       </c>
       <c r="N41" s="23"/>
       <c r="O41" s="23">
-        <v>3886572.1770000001</v>
+        <v>3776384.5469999998</v>
       </c>
       <c r="P41" s="23">
-        <v>616.88</v>
+        <v>845.58699999999999</v>
       </c>
       <c r="Q41" s="23"/>
     </row>
@@ -2151,28 +2154,28 @@
         <v>3.7570000000000001</v>
       </c>
       <c r="F42" s="11">
-        <v>1862.93</v>
+        <v>1406.588</v>
       </c>
       <c r="G42" s="11">
-        <v>27.468</v>
+        <v>21.396999999999998</v>
       </c>
       <c r="I42" s="11">
-        <v>1119.883</v>
+        <v>1027.934</v>
       </c>
       <c r="J42" s="11">
-        <v>18.015999999999998</v>
+        <v>18.041</v>
       </c>
       <c r="L42" s="11">
-        <v>1229.9749999999999</v>
+        <v>1121.4739999999999</v>
       </c>
       <c r="M42" s="11">
-        <v>18.547000000000001</v>
+        <v>18.544</v>
       </c>
       <c r="O42" s="11">
-        <v>860.68299999999999</v>
+        <v>2390.4</v>
       </c>
       <c r="P42" s="11">
-        <v>15.789</v>
+        <v>114.06399999999999</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -2180,28 +2183,28 @@
         <v>34</v>
       </c>
       <c r="F43" s="11">
-        <v>2.9000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G43" s="11">
         <v>0</v>
       </c>
       <c r="I43" s="11">
-        <v>2.1999999999999999E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J43" s="11">
         <v>0</v>
       </c>
       <c r="L43" s="11">
-        <v>2.1000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="M43" s="11">
         <v>0</v>
       </c>
       <c r="O43" s="11">
-        <v>1.4999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="P43" s="11">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -2209,28 +2212,28 @@
         <v>35</v>
       </c>
       <c r="F44" s="11">
-        <v>0.82699999999999996</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="G44" s="11">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I44" s="11">
-        <v>0.83099999999999996</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="J44" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L44" s="11">
-        <v>0.81499999999999995</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="M44" s="11">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="O44" s="11">
-        <v>0.85</v>
+        <v>0.995</v>
       </c>
       <c r="P44" s="11">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -2238,28 +2241,28 @@
         <v>36</v>
       </c>
       <c r="F45" s="11">
-        <v>0.79200000000000004</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="G45" s="11">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I45" s="11">
-        <v>0.56299999999999994</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="J45" s="11">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="L45" s="11">
-        <v>0.59399999999999997</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="M45" s="11">
-        <v>7.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="O45" s="11">
-        <v>0.71299999999999997</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="P45" s="11">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -2275,28 +2278,28 @@
       </c>
       <c r="E46" s="27"/>
       <c r="F46" s="27">
-        <v>5.0999999999999997E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G46" s="27">
         <v>0</v>
       </c>
       <c r="H46" s="27"/>
       <c r="I46" s="27">
-        <v>4.4999999999999998E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J46" s="27">
         <v>0</v>
       </c>
       <c r="K46" s="27"/>
       <c r="L46" s="27">
-        <v>4.4999999999999998E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="M46" s="27">
         <v>0</v>
       </c>
       <c r="N46" s="27"/>
       <c r="O46" s="27">
-        <v>4.2000000000000003E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="P46" s="27">
         <v>0</v>
@@ -2319,21 +2322,21 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27">
-        <v>6.8000000000000005E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="J47" s="27">
         <v>2E-3</v>
       </c>
       <c r="K47" s="27"/>
       <c r="L47" s="27">
-        <v>7.2999999999999995E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="M47" s="27">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N47" s="27"/>
       <c r="O47" s="27">
-        <v>5.8999999999999997E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="P47" s="27">
         <v>2E-3</v>
@@ -2362,7 +2365,7 @@
       <c r="M48" s="19"/>
       <c r="N48" s="19"/>
       <c r="O48" s="19">
-        <v>0.27400000000000002</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="P48" s="19">
         <v>2E-3</v>
@@ -16269,7 +16272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F10" sqref="F10"/>
       <selection pane="topRight" activeCell="F10" sqref="F10"/>

--- a/Model building/Results 20.xlsx
+++ b/Model building/Results 20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\pc\Dokumenter\MSc\Thesis\Model building\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A56EE87-E9ED-415F-9F31-582A56B506DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D698F27-91B3-4C51-97DE-7EBD73C35827}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14715" yWindow="4035" windowWidth="15960" windowHeight="10170" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="71">
   <si>
     <t>Null Model</t>
   </si>
@@ -770,7 +770,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O32" sqref="O32"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -900,37 +900,37 @@
         <v>5</v>
       </c>
       <c r="F4" s="11">
-        <v>449.92</v>
+        <v>450.03399999999999</v>
       </c>
       <c r="G4" s="11">
-        <v>1.726</v>
+        <v>1.7310000000000001</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="11">
-        <v>444.21499999999997</v>
+        <v>444.29199999999997</v>
       </c>
       <c r="J4" s="11">
-        <v>2.5950000000000002</v>
+        <v>2.6120000000000001</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="11">
-        <v>484.52</v>
+        <v>485.82900000000001</v>
       </c>
       <c r="M4" s="11">
-        <v>4.8730000000000002</v>
+        <v>138.785</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O4" s="11">
-        <v>392.90699999999998</v>
+        <v>392.52</v>
       </c>
       <c r="P4" s="11">
-        <v>14.073</v>
+        <v>14.002000000000001</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>5</v>
@@ -962,16 +962,16 @@
         <v>7</v>
       </c>
       <c r="F6" s="11">
-        <v>-6.7000000000000004E-2</v>
+        <v>-6.8000000000000005E-2</v>
       </c>
       <c r="G6" s="11">
-        <v>8.0000000000000002E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="11">
-        <v>-3.1E-2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="J6" s="11">
         <v>1.0999999999999999E-2</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="11">
-        <v>-0.03</v>
+        <v>-3.1E-2</v>
       </c>
       <c r="M6" s="11">
         <v>1.0999999999999999E-2</v>
@@ -989,10 +989,10 @@
         <v>8</v>
       </c>
       <c r="O6" s="11">
-        <v>-6.0000000000000001E-3</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="P6" s="11">
-        <v>1.7000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14">
-        <v>-0.124</v>
+        <v>-0.125</v>
       </c>
       <c r="G7" s="14">
         <v>8.0000000000000002E-3</v>
@@ -1012,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="14">
-        <v>-0.09</v>
+        <v>-9.0999999999999998E-2</v>
       </c>
       <c r="J7" s="14">
         <v>1.0999999999999999E-2</v>
@@ -1021,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="14">
-        <v>-0.09</v>
+        <v>-9.0999999999999998E-2</v>
       </c>
       <c r="M7" s="14">
         <v>1.0999999999999999E-2</v>
@@ -1030,10 +1030,10 @@
         <v>5</v>
       </c>
       <c r="O7" s="14">
-        <v>-7.3999999999999996E-2</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="P7" s="14">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="Q7" s="14" t="s">
         <v>5</v>
@@ -1056,7 +1056,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="25">
-        <v>0.06</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="J8" s="25">
         <v>4.0000000000000001E-3</v>
@@ -1065,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="L8" s="25">
-        <v>0.06</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="M8" s="25">
         <v>4.0000000000000001E-3</v>
@@ -1074,7 +1074,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="25">
-        <v>6.8000000000000005E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="P8" s="25">
         <v>5.0000000000000001E-3</v>
@@ -1138,7 +1138,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G10" s="25">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H10" s="25" t="s">
         <v>16</v>
@@ -1162,7 +1162,7 @@
         <v>5</v>
       </c>
       <c r="O10" s="25">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="P10" s="25">
         <v>2E-3</v>
@@ -1176,7 +1176,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="11">
-        <v>7.9000000000000001E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="G11" s="11">
         <v>7.0000000000000001E-3</v>
@@ -1203,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="O11" s="11">
-        <v>6.8000000000000005E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="P11" s="11">
         <v>7.0000000000000001E-3</v>
@@ -1220,7 +1220,7 @@
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14">
-        <v>6.0999999999999999E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="G12" s="14">
         <v>7.0000000000000001E-3</v>
@@ -1229,7 +1229,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="14">
-        <v>4.5999999999999999E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="J12" s="14">
         <v>8.9999999999999993E-3</v>
@@ -1238,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="L12" s="14">
-        <v>4.5999999999999999E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="M12" s="14">
         <v>8.9999999999999993E-3</v>
@@ -1250,7 +1250,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="P12" s="14">
-        <v>6.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="Q12" s="14" t="s">
         <v>5</v>
@@ -1264,7 +1264,7 @@
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G13" s="25">
         <v>2E-3</v>
@@ -1291,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="O13" s="25">
-        <v>1.2E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="P13" s="25">
         <v>1E-3</v>
@@ -1308,7 +1308,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G14" s="25">
         <v>2E-3</v>
@@ -1373,12 +1373,14 @@
       </c>
       <c r="N15" s="25"/>
       <c r="O15" s="25">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="P15" s="25">
         <v>1E-3</v>
       </c>
-      <c r="Q15" s="25"/>
+      <c r="Q15" s="25" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
@@ -1388,13 +1390,13 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="G16" s="11">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I16" s="11">
-        <v>1.6E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="J16" s="11">
         <v>0.01</v>
@@ -1406,7 +1408,7 @@
         <v>0.01</v>
       </c>
       <c r="O16" s="11">
-        <v>0.03</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="P16" s="11">
         <v>1.2999999999999999E-2</v>
@@ -1435,21 +1437,21 @@
         <v>-1.4E-2</v>
       </c>
       <c r="J17" s="14">
-        <v>8.9999999999999993E-3</v>
+        <v>0.01</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14">
         <v>-1.4E-2</v>
       </c>
       <c r="M17" s="14">
-        <v>8.9999999999999993E-3</v>
+        <v>0.01</v>
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="14">
-        <v>-5.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="P17" s="14">
-        <v>1.2E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="Q17" s="14"/>
     </row>
@@ -1464,7 +1466,7 @@
         <v>3.1E-2</v>
       </c>
       <c r="G18" s="25">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H18" s="25" t="s">
         <v>5</v>
@@ -1488,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="O18" s="25">
-        <v>3.4000000000000002E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="P18" s="25">
         <v>3.0000000000000001E-3</v>
@@ -1514,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="25">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="J19" s="25">
         <v>2E-3</v>
@@ -1576,7 +1578,7 @@
         <v>8</v>
       </c>
       <c r="O20" s="25">
-        <v>0.01</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="P20" s="25">
         <v>2E-3</v>
@@ -1596,7 +1598,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="I21" s="15">
-        <v>-3.7999999999999999E-2</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="J21" s="15">
         <v>1.2E-2</v>
@@ -1605,7 +1607,7 @@
         <v>8</v>
       </c>
       <c r="L21" s="15">
-        <v>-3.7999999999999999E-2</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="M21" s="15">
         <v>1.2E-2</v>
@@ -1640,13 +1642,13 @@
         <v>1.6E-2</v>
       </c>
       <c r="J22" s="15">
-        <v>1.2E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="L22" s="15">
         <v>1.6E-2</v>
       </c>
       <c r="M22" s="15">
-        <v>1.2E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="O22" s="15">
         <v>-2.1000000000000001E-2</v>
@@ -1684,7 +1686,7 @@
         <v>0.01</v>
       </c>
       <c r="O23" s="11">
-        <v>1.9E-2</v>
+        <v>0.02</v>
       </c>
       <c r="P23" s="11">
         <v>1.0999999999999999E-2</v>
@@ -1701,31 +1703,31 @@
         <v>0.44700000000000001</v>
       </c>
       <c r="G24" s="11">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="11">
-        <v>0.245</v>
+        <v>0.246</v>
       </c>
       <c r="J24" s="11">
-        <v>1.6E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>5</v>
       </c>
       <c r="L24" s="11">
-        <v>0.245</v>
+        <v>0.246</v>
       </c>
       <c r="M24" s="11">
-        <v>1.6E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O24" s="11">
-        <v>0.19400000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="P24" s="11">
         <v>1.7000000000000001E-2</v>
@@ -1760,19 +1762,19 @@
         <v>21</v>
       </c>
       <c r="L26" s="11">
-        <v>-0.27900000000000003</v>
+        <v>-0.26800000000000002</v>
       </c>
       <c r="M26" s="11">
-        <v>5.3999999999999999E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="N26" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O26" s="11">
-        <v>-0.27900000000000003</v>
+        <v>-0.28799999999999998</v>
       </c>
       <c r="P26" s="11">
-        <v>5.8999999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="Q26" s="11" t="s">
         <v>5</v>
@@ -1783,19 +1785,19 @@
         <v>22</v>
       </c>
       <c r="L27" s="11">
-        <v>0.20499999999999999</v>
+        <v>0.249</v>
       </c>
       <c r="M27" s="11">
-        <v>5.8000000000000003E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="N27" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O27" s="11">
-        <v>0.40600000000000003</v>
+        <v>0.41</v>
       </c>
       <c r="P27" s="11">
-        <v>5.1999999999999998E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="Q27" s="11" t="s">
         <v>5</v>
@@ -1808,7 +1810,7 @@
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
       <c r="L28" s="11">
-        <v>-0.27500000000000002</v>
+        <v>-0.29199999999999998</v>
       </c>
       <c r="M28" s="11">
         <v>5.3999999999999999E-2</v>
@@ -1817,10 +1819,10 @@
         <v>5</v>
       </c>
       <c r="O28" s="11">
-        <v>-0.108</v>
+        <v>-0.10100000000000001</v>
       </c>
       <c r="P28" s="11">
-        <v>5.8000000000000003E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="Q28" s="11" t="s">
         <v>16</v>
@@ -1831,10 +1833,10 @@
         <v>24</v>
       </c>
       <c r="L29" s="11">
-        <v>-0.28399999999999997</v>
+        <v>-0.26700000000000002</v>
       </c>
       <c r="M29" s="11">
-        <v>3.6999999999999998E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="N29" s="11" t="s">
         <v>5</v>
@@ -1843,7 +1845,7 @@
         <v>-0.157</v>
       </c>
       <c r="P29" s="11">
-        <v>3.5999999999999997E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="Q29" s="11" t="s">
         <v>5</v>
@@ -1854,19 +1856,19 @@
         <v>25</v>
       </c>
       <c r="L30" s="11">
-        <v>-0.111</v>
+        <v>-0.122</v>
       </c>
       <c r="M30" s="11">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="N30" s="11" t="s">
         <v>5</v>
       </c>
       <c r="O30" s="11">
-        <v>-5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="P30" s="11">
-        <v>0.06</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -1922,31 +1924,31 @@
       </c>
       <c r="E35" s="27"/>
       <c r="F35" s="27">
-        <v>7789.8990000000003</v>
+        <v>7785.2370000000001</v>
       </c>
       <c r="G35" s="27">
-        <v>111.17</v>
+        <v>109.813</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="27">
-        <v>5760.9350000000004</v>
+        <v>5759.3490000000002</v>
       </c>
       <c r="J35" s="27">
-        <v>129.518</v>
+        <v>130.28899999999999</v>
       </c>
       <c r="K35" s="27"/>
       <c r="L35" s="27">
-        <v>5760.9769999999999</v>
+        <v>5759.3909999999996</v>
       </c>
       <c r="M35" s="27">
-        <v>129.51900000000001</v>
+        <v>130.291</v>
       </c>
       <c r="N35" s="27"/>
       <c r="O35" s="27">
-        <v>5742.134</v>
+        <v>5740.3789999999999</v>
       </c>
       <c r="P35" s="27">
-        <v>249.88499999999999</v>
+        <v>250.01599999999999</v>
       </c>
       <c r="Q35" s="27"/>
     </row>
@@ -1966,24 +1968,24 @@
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27">
-        <v>3252.3180000000002</v>
+        <v>3252.1379999999999</v>
       </c>
       <c r="J36" s="27">
-        <v>195.28200000000001</v>
+        <v>194.482</v>
       </c>
       <c r="K36" s="27"/>
       <c r="L36" s="27">
-        <v>1614.2449999999999</v>
+        <v>1560.6320000000001</v>
       </c>
       <c r="M36" s="27">
-        <v>143.56399999999999</v>
+        <v>138.785</v>
       </c>
       <c r="N36" s="27"/>
       <c r="O36" s="27">
-        <v>1065.759</v>
+        <v>1050.8030000000001</v>
       </c>
       <c r="P36" s="27">
-        <v>131.495</v>
+        <v>128.56100000000001</v>
       </c>
       <c r="Q36" s="27"/>
     </row>
@@ -2009,10 +2011,10 @@
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
       <c r="O37" s="19">
-        <v>715.41</v>
+        <v>716.87</v>
       </c>
       <c r="P37" s="19">
-        <v>211.88499999999999</v>
+        <v>211.93</v>
       </c>
       <c r="Q37" s="19"/>
     </row>
@@ -2074,31 +2076,31 @@
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="23">
-        <v>3428325.0959999999</v>
+        <v>3428037.7250000001</v>
       </c>
       <c r="G40" s="23">
-        <v>1724.2909999999999</v>
+        <v>1185.779</v>
       </c>
       <c r="H40" s="23"/>
       <c r="I40" s="23">
-        <v>3467536.6469999999</v>
+        <v>3467032.4440000001</v>
       </c>
       <c r="J40" s="23">
-        <v>2082.5210000000002</v>
+        <v>1188.77</v>
       </c>
       <c r="K40" s="23"/>
       <c r="L40" s="23">
-        <v>3425559.9890000001</v>
+        <v>3425082.9739999999</v>
       </c>
       <c r="M40" s="23">
-        <v>2005.96</v>
+        <v>1180.6759999999999</v>
       </c>
       <c r="N40" s="23"/>
       <c r="O40" s="23">
-        <v>3775763.693</v>
+        <v>3775486.2390000001</v>
       </c>
       <c r="P40" s="23">
-        <v>845.58699999999999</v>
+        <v>983.43600000000004</v>
       </c>
       <c r="Q40" s="23"/>
     </row>
@@ -2115,31 +2117,31 @@
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23">
-        <v>3428813.7829999998</v>
+        <v>3428526.412</v>
       </c>
       <c r="G41" s="23">
-        <v>1724.2909999999999</v>
+        <v>1185.779</v>
       </c>
       <c r="H41" s="23"/>
       <c r="I41" s="23">
-        <v>3468159.483</v>
+        <v>3467655.281</v>
       </c>
       <c r="J41" s="23">
-        <v>2082.5210000000002</v>
+        <v>1188.77</v>
       </c>
       <c r="K41" s="23"/>
       <c r="L41" s="23">
-        <v>3426125</v>
+        <v>3425648.318</v>
       </c>
       <c r="M41" s="23">
-        <v>332</v>
+        <v>1180.6759999999999</v>
       </c>
       <c r="N41" s="23"/>
       <c r="O41" s="23">
-        <v>3776384.5469999998</v>
+        <v>3776107.0929999999</v>
       </c>
       <c r="P41" s="23">
-        <v>845.58699999999999</v>
+        <v>983.43600000000004</v>
       </c>
       <c r="Q41" s="23"/>
     </row>
@@ -2154,34 +2156,40 @@
         <v>3.7570000000000001</v>
       </c>
       <c r="F42" s="11">
-        <v>1406.588</v>
+        <v>1395.8009999999999</v>
       </c>
       <c r="G42" s="11">
-        <v>21.396999999999998</v>
+        <v>21.984000000000002</v>
       </c>
       <c r="I42" s="11">
-        <v>1027.934</v>
+        <v>1009.82</v>
       </c>
       <c r="J42" s="11">
-        <v>18.041</v>
+        <v>18.335000000000001</v>
       </c>
       <c r="L42" s="11">
-        <v>1121.4739999999999</v>
+        <v>1097.171</v>
       </c>
       <c r="M42" s="11">
-        <v>18.544</v>
+        <v>22.314</v>
       </c>
       <c r="O42" s="11">
-        <v>2390.4</v>
+        <v>2363.0189999999998</v>
       </c>
       <c r="P42" s="11">
-        <v>114.06399999999999</v>
+        <v>84.435000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="C43" s="11">
+        <v>0</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0</v>
+      </c>
       <c r="F43" s="11">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -2204,27 +2212,33 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="P43" s="11">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>35</v>
       </c>
+      <c r="C44" s="11">
+        <v>0</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0</v>
+      </c>
       <c r="F44" s="11">
-        <v>0.86899999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="G44" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="J44" s="11">
         <v>2E-3</v>
       </c>
-      <c r="I44" s="11">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="J44" s="11">
-        <v>3.0000000000000001E-3</v>
-      </c>
       <c r="L44" s="11">
-        <v>0.83499999999999996</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="M44" s="11">
         <v>2E-3</v>
@@ -2240,29 +2254,35 @@
       <c r="B45" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="C45" s="11">
+        <v>1</v>
+      </c>
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
       <c r="F45" s="11">
-        <v>0.73699999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="G45" s="11">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I45" s="11">
-        <v>0.56599999999999995</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="J45" s="11">
-        <v>7.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="L45" s="11">
-        <v>0.60299999999999998</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="M45" s="11">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O45" s="11">
         <v>0.98899999999999999</v>
       </c>
       <c r="P45" s="11">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -2322,24 +2342,24 @@
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27">
-        <v>6.6000000000000003E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="J47" s="27">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K47" s="27"/>
       <c r="L47" s="27">
-        <v>7.1999999999999995E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="M47" s="27">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N47" s="27"/>
       <c r="O47" s="27">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="P47" s="27">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="Q47" s="27"/>
     </row>
@@ -2368,7 +2388,7 @@
         <v>0.26100000000000001</v>
       </c>
       <c r="P48" s="19">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="Q48" s="19"/>
     </row>

--- a/Model building/Results 20.xlsx
+++ b/Model building/Results 20.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\pc\Dokumenter\MSc\Thesis\Model building\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412EFF78-26B9-4DC7-AA39-E32F550C0ED3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="640"/>
   </bookViews>
   <sheets>
     <sheet name="Model Development" sheetId="21" r:id="rId1"/>
     <sheet name="Final" sheetId="22" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="103">
   <si>
     <t>Null Model</t>
   </si>
@@ -147,21 +146,6 @@
       </rPr>
       <t>(residual variances of FLIT)</t>
     </r>
-  </si>
-  <si>
-    <t>Three-level Model</t>
-  </si>
-  <si>
-    <t>Country-level</t>
-  </si>
-  <si>
-    <t>SRMR L3</t>
-  </si>
-  <si>
-    <t>Country-level Predictors</t>
-  </si>
-  <si>
-    <t>FKI</t>
   </si>
   <si>
     <t>76 BRA</t>
@@ -365,7 +349,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -571,9 +555,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -642,10 +623,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,48 +915,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="47" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="10"/>
-    <col min="5" max="5" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="37" customWidth="1"/>
     <col min="7" max="7" width="9" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="38" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="37" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" style="38" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="37" customWidth="1"/>
     <col min="13" max="13" width="9" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" style="38" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" style="38" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="54"/>
+    <col min="15" max="15" width="4.42578125" style="37" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>75</v>
+        <v>58</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>70</v>
       </c>
       <c r="D1" s="60" t="s">
         <v>0</v>
@@ -994,17 +975,12 @@
       </c>
       <c r="N1" s="60"/>
       <c r="O1" s="60"/>
-      <c r="P1" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="46" t="s">
-        <v>74</v>
+      <c r="C2" s="45" t="s">
+        <v>69</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
@@ -1012,42 +988,35 @@
       <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="37"/>
+      <c r="I2" s="36"/>
       <c r="J2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="37"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="37"/>
+      <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="47"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="31"/>
@@ -1060,21 +1029,18 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="31"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="31"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="10">
-        <v>506.27600000000001</v>
+        <v>454.154</v>
       </c>
       <c r="E4" s="10">
-        <v>12.161</v>
-      </c>
-      <c r="F4" s="38" t="s">
+        <v>2.69</v>
+      </c>
+      <c r="F4" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="10">
@@ -1083,7 +1049,7 @@
       <c r="H4" s="10">
         <v>1.431</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="37" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="10">
@@ -1092,7 +1058,7 @@
       <c r="K4" s="10">
         <v>2.5550000000000002</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="37" t="s">
         <v>5</v>
       </c>
       <c r="M4" s="10">
@@ -1101,25 +1067,16 @@
       <c r="N4" s="10">
         <v>4.7949999999999999</v>
       </c>
-      <c r="O4" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="10">
-        <v>394.70699999999999</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>14.105</v>
-      </c>
-      <c r="R4" s="38" t="s">
+      <c r="O4" s="37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="49"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="16"/>
@@ -1132,16 +1089,13 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="16"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>98</v>
+      <c r="C6" s="47" t="s">
+        <v>93</v>
       </c>
       <c r="G6" s="10">
         <v>-6.8000000000000005E-2</v>
@@ -1149,7 +1103,7 @@
       <c r="H6" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="37" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="10">
@@ -1158,7 +1112,7 @@
       <c r="K6" s="10">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="37" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="10">
@@ -1167,33 +1121,27 @@
       <c r="N6" s="10">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="10">
-        <v>-8.9999999999999993E-3</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>1.6E-2</v>
-      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>70</v>
+      <c r="C7" s="54" t="s">
+        <v>65</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="39"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="13">
         <v>-0.126</v>
       </c>
       <c r="H7" s="13">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="38" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="13">
@@ -1202,7 +1150,7 @@
       <c r="K7" s="13">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="38" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="13">
@@ -1211,36 +1159,27 @@
       <c r="N7" s="13">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="O7" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="13">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>1.4E-2</v>
-      </c>
-      <c r="R7" s="39" t="s">
+      <c r="O7" s="38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>97</v>
+      <c r="C8" s="49" t="s">
+        <v>92</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="24">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="H8" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="39" t="s">
         <v>5</v>
       </c>
       <c r="J8" s="24">
@@ -1249,7 +1188,7 @@
       <c r="K8" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="39" t="s">
         <v>5</v>
       </c>
       <c r="M8" s="24">
@@ -1258,36 +1197,27 @@
       <c r="N8" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="O8" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="24">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="Q8" s="24">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="R8" s="40" t="s">
+      <c r="O8" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B9" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>76</v>
+        <v>63</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>71</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="40"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="24">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="H9" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="39" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="24">
@@ -1296,7 +1226,7 @@
       <c r="K9" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="39" t="s">
         <v>5</v>
       </c>
       <c r="M9" s="24">
@@ -1305,43 +1235,34 @@
       <c r="N9" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="O9" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="24">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="Q9" s="24">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="R9" s="40" t="s">
+      <c r="O9" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>72</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="40"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="24">
         <v>2E-3</v>
       </c>
       <c r="H10" s="24">
         <v>2E-3</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K10" s="24">
         <v>2E-3</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="39" t="s">
         <v>8</v>
       </c>
       <c r="M10" s="24">
@@ -1350,25 +1271,16 @@
       <c r="N10" s="24">
         <v>2E-3</v>
       </c>
-      <c r="O10" s="40" t="s">
+      <c r="O10" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="Q10" s="24">
-        <v>2E-3</v>
-      </c>
-      <c r="R10" s="40" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="48" t="s">
-        <v>96</v>
+      <c r="C11" s="47" t="s">
+        <v>91</v>
       </c>
       <c r="G11" s="10">
         <v>1.2999999999999999E-2</v>
@@ -1377,7 +1289,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J11" s="10">
         <v>8.9999999999999993E-3</v>
@@ -1391,33 +1303,24 @@
       <c r="N11" s="10">
         <v>0.01</v>
       </c>
-      <c r="P11" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>100</v>
-      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="55" t="s">
-        <v>71</v>
+      <c r="C12" s="54" t="s">
+        <v>66</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="39"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="13">
         <v>-1.2E-2</v>
       </c>
       <c r="H12" s="13">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I12" s="39"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="13">
         <v>-1.6E-2</v>
       </c>
@@ -1425,7 +1328,7 @@
         <v>0.01</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M12" s="13">
         <v>-1.6E-2</v>
@@ -1434,33 +1337,26 @@
         <v>0.01</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="P12" s="13">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>1.2E-2</v>
-      </c>
-      <c r="R12" s="39"/>
+        <v>95</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>95</v>
+      <c r="C13" s="49" t="s">
+        <v>90</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="40"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="24">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H13" s="24">
         <v>2E-3</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="39" t="s">
         <v>5</v>
       </c>
       <c r="J13" s="24">
@@ -1469,7 +1365,7 @@
       <c r="K13" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L13" s="40" t="s">
+      <c r="L13" s="39" t="s">
         <v>5</v>
       </c>
       <c r="M13" s="24">
@@ -1478,36 +1374,27 @@
       <c r="N13" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="O13" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13" s="24">
-        <v>3.1E-2</v>
-      </c>
-      <c r="Q13" s="24">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="R13" s="40" t="s">
+      <c r="O13" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>78</v>
+        <v>63</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>73</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="40"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="24">
         <v>2.3E-2</v>
       </c>
       <c r="H14" s="24">
         <v>2E-3</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="39" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="24">
@@ -1516,7 +1403,7 @@
       <c r="K14" s="24">
         <v>2E-3</v>
       </c>
-      <c r="L14" s="40" t="s">
+      <c r="L14" s="39" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="24">
@@ -1525,43 +1412,34 @@
       <c r="N14" s="24">
         <v>2E-3</v>
       </c>
-      <c r="O14" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="24">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="Q14" s="24">
-        <v>2E-3</v>
-      </c>
-      <c r="R14" s="40" t="s">
+      <c r="O14" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B15" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>79</v>
+        <v>64</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="40"/>
+      <c r="F15" s="39"/>
       <c r="G15" s="24">
         <v>2E-3</v>
       </c>
       <c r="H15" s="24">
         <v>1E-3</v>
       </c>
-      <c r="I15" s="40"/>
+      <c r="I15" s="39"/>
       <c r="J15" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K15" s="24">
         <v>2E-3</v>
       </c>
-      <c r="L15" s="40" t="s">
+      <c r="L15" s="39" t="s">
         <v>8</v>
       </c>
       <c r="M15" s="24">
@@ -1570,25 +1448,16 @@
       <c r="N15" s="24">
         <v>2E-3</v>
       </c>
-      <c r="O15" s="40" t="s">
+      <c r="O15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="24">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="Q15" s="24">
-        <v>1E-3</v>
-      </c>
-      <c r="R15" s="40" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="56" t="s">
-        <v>94</v>
+      <c r="C16" s="55" t="s">
+        <v>89</v>
       </c>
       <c r="G16" s="10">
         <v>7.9000000000000001E-2</v>
@@ -1596,7 +1465,7 @@
       <c r="H16" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="37" t="s">
         <v>5</v>
       </c>
       <c r="J16" s="10">
@@ -1605,7 +1474,7 @@
       <c r="K16" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L16" s="38" t="s">
+      <c r="L16" s="37" t="s">
         <v>5</v>
       </c>
       <c r="M16" s="10">
@@ -1614,36 +1483,27 @@
       <c r="N16" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="O16" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="P16" s="10">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="R16" s="38" t="s">
+      <c r="O16" s="37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="55" t="s">
-        <v>72</v>
+      <c r="C17" s="54" t="s">
+        <v>67</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="39"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="13">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="H17" s="13">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="38" t="s">
         <v>5</v>
       </c>
       <c r="J17" s="13">
@@ -1652,7 +1512,7 @@
       <c r="K17" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="38" t="s">
         <v>5</v>
       </c>
       <c r="M17" s="13">
@@ -1661,36 +1521,27 @@
       <c r="N17" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="O17" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="13">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="R17" s="39" t="s">
+      <c r="O17" s="38" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="50" t="s">
-        <v>93</v>
+      <c r="C18" s="49" t="s">
+        <v>88</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="40"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="24">
         <v>1.4E-2</v>
       </c>
       <c r="H18" s="24">
         <v>2E-3</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="39" t="s">
         <v>5</v>
       </c>
       <c r="J18" s="24">
@@ -1699,7 +1550,7 @@
       <c r="K18" s="24">
         <v>2E-3</v>
       </c>
-      <c r="L18" s="40" t="s">
+      <c r="L18" s="39" t="s">
         <v>5</v>
       </c>
       <c r="M18" s="24">
@@ -1708,36 +1559,27 @@
       <c r="N18" s="24">
         <v>2E-3</v>
       </c>
-      <c r="O18" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="24">
-        <v>1.2E-2</v>
-      </c>
-      <c r="Q18" s="24">
-        <v>1E-3</v>
-      </c>
-      <c r="R18" s="40" t="s">
+      <c r="O18" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>80</v>
+        <v>63</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>75</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
-      <c r="F19" s="40"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="24">
         <v>1.4E-2</v>
       </c>
       <c r="H19" s="24">
         <v>2E-3</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="39" t="s">
         <v>5</v>
       </c>
       <c r="J19" s="24">
@@ -1746,7 +1588,7 @@
       <c r="K19" s="24">
         <v>2E-3</v>
       </c>
-      <c r="L19" s="40" t="s">
+      <c r="L19" s="39" t="s">
         <v>5</v>
       </c>
       <c r="M19" s="24">
@@ -1755,66 +1597,48 @@
       <c r="N19" s="24">
         <v>2E-3</v>
       </c>
-      <c r="O19" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="24">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="Q19" s="24">
-        <v>1E-3</v>
-      </c>
-      <c r="R19" s="40" t="s">
+      <c r="O19" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>81</v>
+        <v>64</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>76</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="40"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="24">
         <v>0</v>
       </c>
       <c r="H20" s="24">
         <v>0</v>
       </c>
-      <c r="I20" s="40"/>
+      <c r="I20" s="39"/>
       <c r="J20" s="24">
         <v>0</v>
       </c>
       <c r="K20" s="24">
         <v>0</v>
       </c>
-      <c r="L20" s="40"/>
+      <c r="L20" s="39"/>
       <c r="M20" s="24">
         <v>0</v>
       </c>
       <c r="N20" s="24">
         <v>0</v>
       </c>
-      <c r="O20" s="40"/>
-      <c r="P20" s="24">
-        <v>1E-3</v>
-      </c>
-      <c r="Q20" s="24">
-        <v>1E-3</v>
-      </c>
-      <c r="R20" s="24" t="s">
-        <v>100</v>
-      </c>
+      <c r="O20" s="39"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>92</v>
+        <v>59</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>87</v>
       </c>
       <c r="G21" s="10">
         <v>0.497</v>
@@ -1822,7 +1646,7 @@
       <c r="H21" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="37" t="s">
         <v>5</v>
       </c>
       <c r="J21" s="10">
@@ -1831,7 +1655,7 @@
       <c r="K21" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="37" t="s">
         <v>5</v>
       </c>
       <c r="M21" s="10">
@@ -1840,25 +1664,16 @@
       <c r="N21" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="O21" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="10">
-        <v>0.249</v>
-      </c>
-      <c r="Q21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R21" s="38" t="s">
+      <c r="O21" s="37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B22" s="36" t="s">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B22" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="56" t="s">
-        <v>73</v>
+      <c r="C22" s="55" t="s">
+        <v>68</v>
       </c>
       <c r="G22" s="10">
         <v>0.441</v>
@@ -1866,7 +1681,7 @@
       <c r="H22" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="37" t="s">
         <v>5</v>
       </c>
       <c r="J22" s="10">
@@ -1875,7 +1690,7 @@
       <c r="K22" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="L22" s="38" t="s">
+      <c r="L22" s="37" t="s">
         <v>5</v>
       </c>
       <c r="M22" s="10">
@@ -1884,25 +1699,16 @@
       <c r="N22" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O22" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="10">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="Q22" s="10">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="R22" s="38" t="s">
+      <c r="O22" s="37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B23" s="36" t="s">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B23" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="51" t="s">
-        <v>91</v>
+      <c r="C23" s="50" t="s">
+        <v>86</v>
       </c>
       <c r="G23" s="10">
         <v>5.7000000000000002E-2</v>
@@ -1910,7 +1716,7 @@
       <c r="H23" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="37" t="s">
         <v>5</v>
       </c>
       <c r="J23" s="10">
@@ -1919,7 +1725,7 @@
       <c r="K23" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="37" t="s">
         <v>5</v>
       </c>
       <c r="M23" s="10">
@@ -1928,25 +1734,16 @@
       <c r="N23" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="O23" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="10">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="R23" s="38" t="s">
+      <c r="O23" s="37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B24" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>82</v>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B24" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>77</v>
       </c>
       <c r="G24" s="10">
         <v>5.6000000000000001E-2</v>
@@ -1954,7 +1751,7 @@
       <c r="H24" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="37" t="s">
         <v>5</v>
       </c>
       <c r="J24" s="10">
@@ -1963,7 +1760,7 @@
       <c r="K24" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="37" t="s">
         <v>5</v>
       </c>
       <c r="M24" s="10">
@@ -1972,25 +1769,16 @@
       <c r="N24" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="O24" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="10">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="Q24" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="R24" s="38" t="s">
+      <c r="O24" s="37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B25" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>83</v>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B25" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>78</v>
       </c>
       <c r="G25" s="10">
         <v>1E-3</v>
@@ -2004,7 +1792,7 @@
       <c r="K25" s="10">
         <v>1E-3</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="L25" s="37" t="s">
         <v>9</v>
       </c>
       <c r="M25" s="10">
@@ -2013,25 +1801,16 @@
       <c r="N25" s="10">
         <v>1E-3</v>
       </c>
-      <c r="O25" s="38" t="s">
+      <c r="O25" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="P25" s="10">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="Q25" s="10">
-        <v>2E-3</v>
-      </c>
-      <c r="R25" s="38" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>84</v>
+        <v>62</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="G26" s="10">
         <v>3.0000000000000001E-3</v>
@@ -2045,7 +1824,7 @@
       <c r="K26" s="14">
         <v>1.2E-2</v>
       </c>
-      <c r="L26" s="38" t="s">
+      <c r="L26" s="37" t="s">
         <v>8</v>
       </c>
       <c r="M26" s="14">
@@ -2054,25 +1833,16 @@
       <c r="N26" s="14">
         <v>1.2E-2</v>
       </c>
-      <c r="O26" s="38" t="s">
+      <c r="O26" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P26" s="10">
-        <v>-3.1E-2</v>
-      </c>
-      <c r="Q26" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="R26" s="38" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>85</v>
       </c>
       <c r="G27" s="10">
         <v>-3.0000000000000001E-3</v>
@@ -2081,7 +1851,7 @@
         <v>2E-3</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J27" s="14">
         <v>-5.0000000000000001E-3</v>
@@ -2089,7 +1859,7 @@
       <c r="K27" s="14">
         <v>2E-3</v>
       </c>
-      <c r="L27" s="38" t="s">
+      <c r="L27" s="37" t="s">
         <v>8</v>
       </c>
       <c r="M27" s="14">
@@ -2098,22 +1868,16 @@
       <c r="N27" s="14">
         <v>2E-3</v>
       </c>
-      <c r="O27" s="38" t="s">
+      <c r="O27" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P27" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="14">
-        <v>2E-3</v>
-      </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B28" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>85</v>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B28" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>80</v>
       </c>
       <c r="G28" s="10">
         <v>-3.0000000000000001E-3</v>
@@ -2122,7 +1886,7 @@
         <v>2E-3</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J28" s="14">
         <v>-5.0000000000000001E-3</v>
@@ -2130,7 +1894,7 @@
       <c r="K28" s="14">
         <v>2E-3</v>
       </c>
-      <c r="L28" s="38" t="s">
+      <c r="L28" s="37" t="s">
         <v>9</v>
       </c>
       <c r="M28" s="14">
@@ -2139,22 +1903,16 @@
       <c r="N28" s="14">
         <v>2E-3</v>
       </c>
-      <c r="O28" s="38" t="s">
+      <c r="O28" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="P28" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="14">
-        <v>2E-3</v>
-      </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B29" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>86</v>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B29" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>81</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
@@ -2168,7 +1926,7 @@
       <c r="K29" s="14">
         <v>0</v>
       </c>
-      <c r="L29" s="38" t="s">
+      <c r="L29" s="37" t="s">
         <v>9</v>
       </c>
       <c r="M29" s="14">
@@ -2177,22 +1935,16 @@
       <c r="N29" s="14">
         <v>0</v>
       </c>
-      <c r="O29" s="38" t="s">
+      <c r="O29" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="P29" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="14">
-        <v>2E-3</v>
-      </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>89</v>
+        <v>61</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>84</v>
       </c>
       <c r="G30" s="10">
         <v>5.0000000000000001E-3</v>
@@ -2200,7 +1952,7 @@
       <c r="H30" s="10">
         <v>2E-3</v>
       </c>
-      <c r="I30" s="38" t="s">
+      <c r="I30" s="37" t="s">
         <v>8</v>
       </c>
       <c r="J30" s="10">
@@ -2209,7 +1961,7 @@
       <c r="K30" s="10">
         <v>2E-3</v>
       </c>
-      <c r="L30" s="38" t="s">
+      <c r="L30" s="37" t="s">
         <v>5</v>
       </c>
       <c r="M30" s="10">
@@ -2218,25 +1970,16 @@
       <c r="N30" s="10">
         <v>2E-3</v>
       </c>
-      <c r="O30" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="14">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="Q30" s="14">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="R30" s="38" t="s">
+      <c r="O30" s="37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B31" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>87</v>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B31" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>82</v>
       </c>
       <c r="G31" s="10">
         <v>4.0000000000000001E-3</v>
@@ -2244,7 +1987,7 @@
       <c r="H31" s="10">
         <v>2E-3</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="37" t="s">
         <v>9</v>
       </c>
       <c r="J31" s="10">
@@ -2253,7 +1996,7 @@
       <c r="K31" s="10">
         <v>2E-3</v>
       </c>
-      <c r="L31" s="38" t="s">
+      <c r="L31" s="37" t="s">
         <v>8</v>
       </c>
       <c r="M31" s="10">
@@ -2262,25 +2005,16 @@
       <c r="N31" s="10">
         <v>2E-3</v>
       </c>
-      <c r="O31" s="38" t="s">
+      <c r="O31" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P31" s="10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="Q31" s="10">
-        <v>2E-3</v>
-      </c>
-      <c r="R31" s="38" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B32" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>88</v>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B32" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="G32" s="10">
         <v>1E-3</v>
@@ -2294,7 +2028,7 @@
       <c r="K32" s="10">
         <v>1E-3</v>
       </c>
-      <c r="L32" s="38" t="s">
+      <c r="L32" s="37" t="s">
         <v>8</v>
       </c>
       <c r="M32" s="10">
@@ -2303,25 +2037,16 @@
       <c r="N32" s="10">
         <v>1E-3</v>
       </c>
-      <c r="O32" s="38" t="s">
+      <c r="O32" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="P32" s="10">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="Q32" s="10">
-        <v>2E-3</v>
-      </c>
-      <c r="R32" s="38" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="11"/>
-      <c r="C33" s="49"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="16"/>
@@ -2334,16 +2059,13 @@
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="16"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="16"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="48" t="s">
-        <v>101</v>
+      <c r="C34" s="47" t="s">
+        <v>96</v>
       </c>
       <c r="M34" s="10">
         <v>-0.28299999999999997</v>
@@ -2351,25 +2073,16 @@
       <c r="N34" s="10">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="O34" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="10">
-        <v>-0.30299999999999999</v>
-      </c>
-      <c r="Q34" s="10">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="R34" s="38" t="s">
+      <c r="O34" s="37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B35" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="48" t="s">
-        <v>102</v>
+      <c r="C35" s="47" t="s">
+        <v>97</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -2379,22 +2092,16 @@
       <c r="N35" s="10">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="O35" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="10">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>6.3E-2</v>
+      <c r="O35" s="37" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B36" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="48" t="s">
-        <v>103</v>
+      <c r="C36" s="47" t="s">
+        <v>98</v>
       </c>
       <c r="M36" s="10">
         <v>0.26600000000000001</v>
@@ -2402,25 +2109,16 @@
       <c r="N36" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="O36" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="P36" s="10">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="R36" s="38" t="s">
+      <c r="O36" s="37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="48" t="s">
-        <v>104</v>
+      <c r="C37" s="47" t="s">
+        <v>99</v>
       </c>
       <c r="M37" s="10">
         <v>-0.28699999999999998</v>
@@ -2428,25 +2126,16 @@
       <c r="N37" s="10">
         <v>3.9E-2</v>
       </c>
-      <c r="O37" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="P37" s="10">
-        <v>-0.16</v>
-      </c>
-      <c r="Q37" s="10">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="R37" s="38" t="s">
+      <c r="O37" s="37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B38" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="48" t="s">
-        <v>105</v>
+      <c r="C38" s="47" t="s">
+        <v>100</v>
       </c>
       <c r="M38" s="10">
         <v>-0.13</v>
@@ -2454,546 +2143,370 @@
       <c r="N38" s="10">
         <v>1.4E-2</v>
       </c>
-      <c r="O38" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="P38" s="10">
+      <c r="O38" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="51"/>
+      <c r="D40" s="26">
+        <v>6121.9040000000005</v>
+      </c>
+      <c r="E40" s="26">
+        <v>131.19200000000001</v>
+      </c>
+      <c r="F40" s="40"/>
+      <c r="G40" s="26">
+        <v>7856.3670000000002</v>
+      </c>
+      <c r="H40" s="26">
+        <v>114.30500000000001</v>
+      </c>
+      <c r="I40" s="40"/>
+      <c r="J40" s="26">
+        <v>5761.165</v>
+      </c>
+      <c r="K40" s="26">
+        <v>130.59299999999999</v>
+      </c>
+      <c r="L40" s="40"/>
+      <c r="M40" s="26">
+        <v>5761.1769999999997</v>
+      </c>
+      <c r="N40" s="26">
+        <v>130.59399999999999</v>
+      </c>
+      <c r="O40" s="40"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="52"/>
+      <c r="D41" s="18">
+        <v>5240.4769999999999</v>
+      </c>
+      <c r="E41" s="18">
+        <v>202.00399999999999</v>
+      </c>
+      <c r="F41" s="41"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="18">
+        <v>3258.2420000000002</v>
+      </c>
+      <c r="K41" s="18">
+        <v>193.21799999999999</v>
+      </c>
+      <c r="L41" s="41"/>
+      <c r="M41" s="18">
+        <v>1681.29</v>
+      </c>
+      <c r="N41" s="18">
+        <v>138.79499999999999</v>
+      </c>
+      <c r="O41" s="41"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="53"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="42"/>
+      <c r="G42" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="42"/>
+      <c r="J42" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="42"/>
+      <c r="M42" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" s="42"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="16"/>
+      <c r="B43" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="22">
+        <v>1253984.4639999999</v>
+      </c>
+      <c r="E43" s="22">
+        <v>1092.7639999999999</v>
+      </c>
+      <c r="F43" s="43"/>
+      <c r="G43" s="22">
+        <v>3420818.0380000002</v>
+      </c>
+      <c r="H43" s="22">
+        <v>1276.701</v>
+      </c>
+      <c r="I43" s="43"/>
+      <c r="J43" s="22">
+        <v>3460679.41</v>
+      </c>
+      <c r="K43" s="22">
+        <v>1253.8389999999999</v>
+      </c>
+      <c r="L43" s="43"/>
+      <c r="M43" s="22">
+        <v>3418712.0010000002</v>
+      </c>
+      <c r="N43" s="22">
+        <v>1240.4179999999999</v>
+      </c>
+      <c r="O43" s="43"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" s="16"/>
+      <c r="B44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="22">
+        <v>1254013.2109999999</v>
+      </c>
+      <c r="E44" s="22">
+        <v>1092.7639999999999</v>
+      </c>
+      <c r="F44" s="43"/>
+      <c r="G44" s="22">
+        <v>3421325.889</v>
+      </c>
+      <c r="H44" s="22">
+        <v>1276.701</v>
+      </c>
+      <c r="I44" s="43"/>
+      <c r="J44" s="22">
+        <v>3461330.9929999998</v>
+      </c>
+      <c r="K44" s="22">
+        <v>1253.8389999999999</v>
+      </c>
+      <c r="L44" s="43"/>
+      <c r="M44" s="22">
+        <v>2419306.091</v>
+      </c>
+      <c r="N44" s="22">
+        <v>1240.4179999999999</v>
+      </c>
+      <c r="O44" s="43"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B45" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="10">
+        <v>2.1930000000000001</v>
+      </c>
+      <c r="E45" s="10">
+        <v>1.468</v>
+      </c>
+      <c r="G45" s="10">
+        <v>358.59899999999999</v>
+      </c>
+      <c r="H45" s="10">
+        <v>13.765000000000001</v>
+      </c>
+      <c r="J45" s="10">
+        <v>231.994</v>
+      </c>
+      <c r="K45" s="10">
+        <v>8.0530000000000008</v>
+      </c>
+      <c r="M45" s="10">
+        <v>261.80900000000003</v>
+      </c>
+      <c r="N45" s="10">
+        <v>8.8979999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B46" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="G46" s="10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0</v>
+      </c>
+      <c r="J46" s="10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K46" s="10">
+        <v>0</v>
+      </c>
+      <c r="M46" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="N46" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B47" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="H47" s="10">
         <v>1E-3</v>
       </c>
-      <c r="Q38" s="10">
-        <v>5.8000000000000003E-2</v>
+      <c r="J47" s="10">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="K47" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="M47" s="10">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="N47" s="10">
+        <v>1E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="16"/>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B48" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="10">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="H48" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J48" s="10">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="K48" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M48" s="10">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="N48" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B40" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="P40" s="10">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="Q40" s="10">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="R40" s="38" t="s">
-        <v>5</v>
-      </c>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="51"/>
+      <c r="D49" s="26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E49" s="26">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F49" s="40"/>
+      <c r="G49" s="26">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H49" s="26">
+        <v>0</v>
+      </c>
+      <c r="I49" s="40"/>
+      <c r="J49" s="26">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K49" s="26">
+        <v>0</v>
+      </c>
+      <c r="L49" s="40"/>
+      <c r="M49" s="26">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N49" s="26">
+        <v>0</v>
+      </c>
+      <c r="O49" s="40"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="26">
-        <v>6117.3689999999997</v>
-      </c>
-      <c r="E42" s="26">
-        <v>292.91199999999998</v>
-      </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="26">
-        <v>7856.3670000000002</v>
-      </c>
-      <c r="H42" s="26">
-        <v>114.30500000000001</v>
-      </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="26">
-        <v>5761.165</v>
-      </c>
-      <c r="K42" s="26">
-        <v>130.59299999999999</v>
-      </c>
-      <c r="L42" s="41"/>
-      <c r="M42" s="26">
-        <v>5761.1769999999997</v>
-      </c>
-      <c r="N42" s="26">
-        <v>130.59399999999999</v>
-      </c>
-      <c r="O42" s="41"/>
-      <c r="P42" s="26">
-        <v>5746.2089999999998</v>
-      </c>
-      <c r="Q42" s="26">
-        <v>249.86099999999999</v>
-      </c>
-      <c r="R42" s="41"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="26">
-        <v>2657.4430000000002</v>
-      </c>
-      <c r="E43" s="26">
-        <v>329.29399999999998</v>
-      </c>
-      <c r="F43" s="41"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="26">
-        <v>3258.2420000000002</v>
-      </c>
-      <c r="K43" s="26">
-        <v>193.21799999999999</v>
-      </c>
-      <c r="L43" s="41"/>
-      <c r="M43" s="26">
-        <v>1681.29</v>
-      </c>
-      <c r="N43" s="26">
-        <v>138.79499999999999</v>
-      </c>
-      <c r="O43" s="41"/>
-      <c r="P43" s="26">
-        <v>1053.836</v>
-      </c>
-      <c r="Q43" s="26">
-        <v>129.36000000000001</v>
-      </c>
-      <c r="R43" s="41"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="18">
-        <v>5163.7160000000003</v>
-      </c>
-      <c r="E44" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="F44" s="42"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="18">
-        <v>712.71699999999998</v>
-      </c>
-      <c r="Q44" s="18">
-        <v>209.767</v>
-      </c>
-      <c r="R44" s="42"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="43"/>
-      <c r="G45" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I45" s="43"/>
-      <c r="J45" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L45" s="43"/>
-      <c r="M45" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="O45" s="43"/>
-      <c r="P45" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q45" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="R45" s="43"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A46" s="16"/>
-      <c r="B46" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="22">
-        <v>1408122.2930000001</v>
-      </c>
-      <c r="E46" s="22">
-        <v>377.19799999999998</v>
-      </c>
-      <c r="F46" s="44"/>
-      <c r="G46" s="22">
-        <v>3420818.0380000002</v>
-      </c>
-      <c r="H46" s="22">
-        <v>1276.701</v>
-      </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="22">
-        <v>3460679.41</v>
-      </c>
-      <c r="K46" s="22">
-        <v>1253.8389999999999</v>
-      </c>
-      <c r="L46" s="44"/>
-      <c r="M46" s="22">
-        <v>3418712.0010000002</v>
-      </c>
-      <c r="N46" s="22">
-        <v>1240.4179999999999</v>
-      </c>
-      <c r="O46" s="44"/>
-      <c r="P46" s="22">
-        <v>3945438.65</v>
-      </c>
-      <c r="Q46" s="22">
-        <v>1028.0650000000001</v>
-      </c>
-      <c r="R46" s="44"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A47" s="16"/>
-      <c r="B47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="22">
-        <v>1408161.0959999999</v>
-      </c>
-      <c r="E47" s="22">
-        <v>377.19799999999998</v>
-      </c>
-      <c r="F47" s="44"/>
-      <c r="G47" s="22">
-        <v>3421325.889</v>
-      </c>
-      <c r="H47" s="22">
-        <v>1276.701</v>
-      </c>
-      <c r="I47" s="44"/>
-      <c r="J47" s="22">
-        <v>3461330.9929999998</v>
-      </c>
-      <c r="K47" s="22">
-        <v>1253.8389999999999</v>
-      </c>
-      <c r="L47" s="44"/>
-      <c r="M47" s="22">
-        <v>2419306.091</v>
-      </c>
-      <c r="N47" s="22">
-        <v>1240.4179999999999</v>
-      </c>
-      <c r="O47" s="44"/>
-      <c r="P47" s="22">
-        <v>3946108.0090000001</v>
-      </c>
-      <c r="Q47" s="22">
-        <v>1028.0650000000001</v>
-      </c>
-      <c r="R47" s="44"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B48" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="10">
-        <v>30.123999999999999</v>
-      </c>
-      <c r="E48" s="10">
-        <v>3.7570000000000001</v>
-      </c>
-      <c r="G48" s="10">
-        <v>358.59899999999999</v>
-      </c>
-      <c r="H48" s="10">
-        <v>13.765000000000001</v>
-      </c>
-      <c r="J48" s="10">
-        <v>231.994</v>
-      </c>
-      <c r="K48" s="10">
-        <v>8.0530000000000008</v>
-      </c>
-      <c r="M48" s="10">
-        <v>261.80900000000003</v>
-      </c>
-      <c r="N48" s="10">
-        <v>8.8979999999999997</v>
-      </c>
-      <c r="P48" s="10">
-        <v>549.255</v>
-      </c>
-      <c r="Q48" s="10">
-        <v>12.837999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B49" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="10">
-        <v>0</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0</v>
-      </c>
-      <c r="G49" s="10">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="52"/>
+      <c r="D50" s="18">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E50" s="18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F50" s="41"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H49" s="10">
-        <v>0</v>
-      </c>
-      <c r="J49" s="10">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="K49" s="10">
-        <v>0</v>
-      </c>
-      <c r="M49" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="N49" s="10">
-        <v>0</v>
-      </c>
-      <c r="P49" s="10">
-        <v>1.2E-2</v>
-      </c>
-      <c r="Q49" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B50" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0</v>
-      </c>
-      <c r="E50" s="10">
-        <v>0</v>
-      </c>
-      <c r="G50" s="10">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="H50" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="J50" s="10">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="K50" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="M50" s="10">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="N50" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="P50" s="10">
-        <v>0.999</v>
-      </c>
-      <c r="Q50" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B51" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="10">
-        <v>1</v>
-      </c>
-      <c r="E51" s="10">
-        <v>0</v>
-      </c>
-      <c r="G51" s="10">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="H51" s="10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J51" s="10">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="K51" s="10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M51" s="10">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="N51" s="10">
+      <c r="K50" s="18">
+        <v>2E-3</v>
+      </c>
+      <c r="L50" s="41"/>
+      <c r="M50" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="N50" s="18">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P51" s="10">
-        <v>0.998</v>
-      </c>
-      <c r="Q51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="26">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E52" s="26">
-        <v>2E-3</v>
-      </c>
-      <c r="F52" s="41"/>
-      <c r="G52" s="26">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="H52" s="26">
-        <v>0</v>
-      </c>
-      <c r="I52" s="41"/>
-      <c r="J52" s="26">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="K52" s="26">
-        <v>0</v>
-      </c>
-      <c r="L52" s="41"/>
-      <c r="M52" s="26">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="N52" s="26">
-        <v>0</v>
-      </c>
-      <c r="O52" s="41"/>
-      <c r="P52" s="26">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="Q52" s="26">
-        <v>0</v>
-      </c>
-      <c r="R52" s="41"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="26">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="E53" s="26">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="26">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K53" s="26">
-        <v>2E-3</v>
-      </c>
-      <c r="L53" s="41"/>
-      <c r="M53" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="N53" s="26">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O53" s="41"/>
-      <c r="P53" s="26">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="Q53" s="26">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="R53" s="41"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="18">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="E54" s="18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F54" s="42"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="18">
-        <v>0.253</v>
-      </c>
-      <c r="Q54" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="R54" s="42"/>
+      <c r="O50" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
@@ -3004,10 +2517,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383F5806-D5AD-4D5C-83CF-3D272B6336E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3016,191 +2529,191 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="58" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="58"/>
-    <col min="8" max="8" width="8.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="58" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="58"/>
-    <col min="11" max="11" width="8.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" style="58" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" style="58" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="58" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.42578125" style="58" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8" style="58" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.42578125" style="58" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="58"/>
-    <col min="26" max="26" width="8.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.42578125" style="58" customWidth="1"/>
-    <col min="28" max="28" width="9" style="58" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.42578125" style="58" customWidth="1"/>
-    <col min="34" max="34" width="8.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.42578125" style="58" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="58"/>
-    <col min="38" max="38" width="5.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.42578125" style="58" customWidth="1"/>
-    <col min="40" max="40" width="9.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.42578125" style="58" customWidth="1"/>
-    <col min="43" max="43" width="9.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.42578125" style="58" customWidth="1"/>
-    <col min="46" max="46" width="9.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="4.42578125" style="58" customWidth="1"/>
-    <col min="49" max="49" width="9.140625" style="58"/>
-    <col min="50" max="50" width="8.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="4.42578125" style="58" customWidth="1"/>
-    <col min="52" max="52" width="9" style="58" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="6" style="58" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="4.42578125" style="58" customWidth="1"/>
-    <col min="55" max="55" width="9.140625" style="58"/>
-    <col min="56" max="56" width="7.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="4.42578125" style="58" customWidth="1"/>
-    <col min="58" max="59" width="9.140625" style="58"/>
-    <col min="60" max="60" width="4.42578125" style="58" customWidth="1"/>
-    <col min="61" max="61" width="8.7109375" style="58" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8" style="58" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="4.42578125" style="58" customWidth="1"/>
-    <col min="64" max="64" width="9" style="58" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="7.85546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="4.42578125" style="58" customWidth="1"/>
-    <col min="67" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="4.42578125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="57"/>
+    <col min="8" max="8" width="8.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="57" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="57"/>
+    <col min="11" max="11" width="8.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="57" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" style="57" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="57" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.42578125" style="57" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" style="57" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.42578125" style="57" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="57"/>
+    <col min="26" max="26" width="8.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.42578125" style="57" customWidth="1"/>
+    <col min="28" max="28" width="9" style="57" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.85546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.42578125" style="57" customWidth="1"/>
+    <col min="34" max="34" width="8.85546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.85546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.42578125" style="57" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="57"/>
+    <col min="38" max="38" width="5.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.42578125" style="57" customWidth="1"/>
+    <col min="40" max="40" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.85546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.42578125" style="57" customWidth="1"/>
+    <col min="43" max="43" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.42578125" style="57" customWidth="1"/>
+    <col min="46" max="46" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.42578125" style="57" customWidth="1"/>
+    <col min="49" max="49" width="9.140625" style="57"/>
+    <col min="50" max="50" width="8.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.42578125" style="57" customWidth="1"/>
+    <col min="52" max="52" width="9" style="57" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6" style="57" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="4.42578125" style="57" customWidth="1"/>
+    <col min="55" max="55" width="9.140625" style="57"/>
+    <col min="56" max="56" width="7.85546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.42578125" style="57" customWidth="1"/>
+    <col min="58" max="59" width="9.140625" style="57"/>
+    <col min="60" max="60" width="4.42578125" style="57" customWidth="1"/>
+    <col min="61" max="61" width="8.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8" style="57" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="4.42578125" style="57" customWidth="1"/>
+    <col min="64" max="64" width="9" style="57" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.85546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="4.42578125" style="57" customWidth="1"/>
+    <col min="67" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="35"/>
+      <c r="C1" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="61"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="61"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="61"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="61"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="61"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="35" t="s">
+      <c r="W1" s="61"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="35" t="s">
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="35" t="s">
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="35" t="s">
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="35" t="s">
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="35"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="35" t="s">
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="35" t="s">
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="35" t="s">
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="35" t="s">
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="35" t="s">
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="35" t="s">
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="35" t="s">
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="35" t="s">
+      <c r="BG1" s="61"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="35" t="s">
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="BM1" s="35"/>
+      <c r="BM1" s="61"/>
       <c r="BN1" s="2"/>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="46" t="s">
-        <v>74</v>
+      <c r="C2" s="45" t="s">
+        <v>69</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
@@ -3350,12 +2863,12 @@
       </c>
       <c r="BN2" s="5"/>
     </row>
-    <row r="3" spans="1:66" s="59" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:66" s="58" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="47"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="31"/>
@@ -3602,7 +3115,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="49"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -3672,8 +3185,8 @@
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>98</v>
+      <c r="C6" s="47" t="s">
+        <v>93</v>
       </c>
       <c r="D6" s="10">
         <v>-3.2000000000000001E-2</v>
@@ -3846,8 +3359,8 @@
       <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>70</v>
+      <c r="C7" s="54" t="s">
+        <v>65</v>
       </c>
       <c r="D7" s="13">
         <v>-8.8999999999999996E-2</v>
@@ -4024,8 +3537,8 @@
       <c r="B8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>97</v>
+      <c r="C8" s="49" t="s">
+        <v>92</v>
       </c>
       <c r="D8" s="24">
         <v>5.8000000000000003E-2</v>
@@ -4184,7 +3697,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="BH8" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BI8" s="24">
         <v>8.2000000000000003E-2</v>
@@ -4208,10 +3721,10 @@
     <row r="9" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>76</v>
+        <v>63</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>71</v>
       </c>
       <c r="D9" s="24">
         <v>5.2999999999999999E-2</v>
@@ -4370,7 +3883,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="BH9" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BI9" s="24">
         <v>7.5999999999999998E-2</v>
@@ -4394,10 +3907,10 @@
     <row r="10" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>72</v>
       </c>
       <c r="D10" s="24">
         <v>5.0000000000000001E-3</v>
@@ -4521,7 +4034,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AY10" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AZ10" s="24">
         <v>1.6E-2</v>
@@ -4548,7 +4061,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="BH10" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BI10" s="24">
         <v>6.0000000000000001E-3</v>
@@ -4557,7 +4070,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="BK10" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BL10" s="24">
         <v>0</v>
@@ -4572,8 +4085,8 @@
       <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="48" t="s">
-        <v>96</v>
+      <c r="C11" s="47" t="s">
+        <v>91</v>
       </c>
       <c r="D11" s="10">
         <v>8.9999999999999993E-3</v>
@@ -4742,8 +4255,8 @@
       <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="55" t="s">
-        <v>71</v>
+      <c r="C12" s="54" t="s">
+        <v>66</v>
       </c>
       <c r="D12" s="13">
         <v>-1.6E-2</v>
@@ -4752,7 +4265,7 @@
         <v>0.01</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G12" s="13">
         <v>3.6999999999999998E-2</v>
@@ -4777,7 +4290,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P12" s="13">
         <v>4.1000000000000002E-2</v>
@@ -4918,8 +4431,8 @@
       <c r="B13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>95</v>
+      <c r="C13" s="49" t="s">
+        <v>90</v>
       </c>
       <c r="D13" s="24">
         <v>2.5000000000000001E-2</v>
@@ -5102,10 +4615,10 @@
     <row r="14" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>78</v>
+        <v>63</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>73</v>
       </c>
       <c r="D14" s="24">
         <v>0.02</v>
@@ -5262,7 +4775,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="BH14" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BI14" s="24">
         <v>1.4999999999999999E-2</v>
@@ -5286,10 +4799,10 @@
     <row r="15" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>79</v>
+        <v>64</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>74</v>
       </c>
       <c r="D15" s="24">
         <v>5.0000000000000001E-3</v>
@@ -5415,7 +4928,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AY15" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AZ15" s="24">
         <v>1.4E-2</v>
@@ -5442,7 +4955,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="BH15" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BI15" s="24">
         <v>4.0000000000000001E-3</v>
@@ -5451,7 +4964,7 @@
         <v>2E-3</v>
       </c>
       <c r="BK15" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BL15" s="24">
         <v>1E-3</v>
@@ -5466,8 +4979,8 @@
       <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="56" t="s">
-        <v>94</v>
+      <c r="C16" s="55" t="s">
+        <v>89</v>
       </c>
       <c r="D16" s="10">
         <v>5.5E-2</v>
@@ -5642,8 +5155,8 @@
       <c r="B17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="55" t="s">
-        <v>72</v>
+      <c r="C17" s="54" t="s">
+        <v>67</v>
       </c>
       <c r="D17" s="13">
         <v>4.5999999999999999E-2</v>
@@ -5818,8 +5331,8 @@
       <c r="B18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="50" t="s">
-        <v>93</v>
+      <c r="C18" s="49" t="s">
+        <v>88</v>
       </c>
       <c r="D18" s="24">
         <v>0.01</v>
@@ -5837,7 +5350,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J18" s="24">
         <v>5.0000000000000001E-3</v>
@@ -5846,7 +5359,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M18" s="24">
         <v>8.9999999999999993E-3</v>
@@ -5992,16 +5505,16 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="BN18" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>80</v>
+        <v>101</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>75</v>
       </c>
       <c r="D19" s="24">
         <v>8.9999999999999993E-3</v>
@@ -6055,7 +5568,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="U19" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V19" s="24">
         <v>1.2E-2</v>
@@ -6176,16 +5689,16 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="BN19" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>81</v>
+        <v>64</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>76</v>
       </c>
       <c r="D20" s="24">
         <v>0</v>
@@ -6266,7 +5779,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AJ20" s="24" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK20" s="24"/>
       <c r="AL20" s="24"/>
@@ -6342,10 +5855,10 @@
     <row r="21" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>92</v>
+        <v>59</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>87</v>
       </c>
       <c r="D21" s="14">
         <v>0.28999999999999998</v>
@@ -6506,7 +6019,7 @@
         <v>0.122</v>
       </c>
       <c r="BH21" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BI21" s="14">
         <v>0.25</v>
@@ -6532,8 +6045,8 @@
       <c r="B22" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="56" t="s">
-        <v>73</v>
+      <c r="C22" s="55" t="s">
+        <v>68</v>
       </c>
       <c r="D22" s="14">
         <v>0.245</v>
@@ -6694,7 +6207,7 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="BH22" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BI22" s="14">
         <v>0.22800000000000001</v>
@@ -6720,8 +6233,8 @@
       <c r="B23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="51" t="s">
-        <v>91</v>
+      <c r="C23" s="50" t="s">
+        <v>86</v>
       </c>
       <c r="D23" s="14">
         <v>4.4999999999999998E-2</v>
@@ -6880,7 +6393,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="BH23" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BI23" s="14">
         <v>2.3E-2</v>
@@ -6904,10 +6417,10 @@
     <row r="24" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>82</v>
+        <v>63</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>77</v>
       </c>
       <c r="D24" s="14">
         <v>0.222</v>
@@ -7066,7 +6579,7 @@
         <v>0.02</v>
       </c>
       <c r="BH24" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BI24" s="14">
         <v>2.1999999999999999E-2</v>
@@ -7090,10 +6603,10 @@
     <row r="25" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>107</v>
+        <v>64</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>102</v>
       </c>
       <c r="D25" s="14">
         <v>6.3E-2</v>
@@ -7257,13 +6770,13 @@
       </c>
       <c r="BN25" s="31"/>
     </row>
-    <row r="26" spans="1:66" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:66" s="53" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>84</v>
+        <v>62</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="D26" s="14">
         <v>-4.1000000000000002E-2</v>
@@ -7332,7 +6845,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="AD26" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AE26" s="14">
         <v>-8.1000000000000003E-2</v>
@@ -7383,7 +6896,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="AY26" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AZ26" s="14">
         <v>-2.7E-2</v>
@@ -7392,7 +6905,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="BB26" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BC26" s="14">
         <v>-4.0000000000000001E-3</v>
@@ -7428,10 +6941,10 @@
     <row r="27" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>85</v>
       </c>
       <c r="D27" s="14">
         <v>-5.0000000000000001E-3</v>
@@ -7590,10 +7103,10 @@
     <row r="28" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>85</v>
+        <v>63</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>80</v>
       </c>
       <c r="D28" s="14">
         <v>-5.0000000000000001E-3</v>
@@ -7639,7 +7152,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="U28" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V28" s="14">
         <v>-1.0999999999999999E-2</v>
@@ -7737,7 +7250,7 @@
         <v>2E-3</v>
       </c>
       <c r="BK28" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BL28" s="14">
         <v>-8.0000000000000002E-3</v>
@@ -7752,10 +7265,10 @@
     <row r="29" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>86</v>
+        <v>64</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>81</v>
       </c>
       <c r="D29" s="14">
         <v>-1E-3</v>
@@ -7910,10 +7423,10 @@
     <row r="30" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>89</v>
+        <v>61</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>84</v>
       </c>
       <c r="D30" s="14">
         <v>8.0000000000000002E-3</v>
@@ -7963,7 +7476,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="U30" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V30" s="14">
         <v>2.1000000000000001E-2</v>
@@ -8088,10 +7601,10 @@
     <row r="31" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>87</v>
+        <v>63</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>82</v>
       </c>
       <c r="D31" s="14">
         <v>4.0000000000000001E-3</v>
@@ -8256,10 +7769,10 @@
     <row r="32" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>88</v>
+        <v>64</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="D32" s="14">
         <v>4.0000000000000001E-3</v>
@@ -8385,7 +7898,7 @@
         <v>2E-3</v>
       </c>
       <c r="AY32" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AZ32" s="14">
         <v>1.0999999999999999E-2</v>
@@ -8419,7 +7932,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="BK32" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="BL32" s="14">
         <v>0</v>
@@ -8434,7 +7947,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="11"/>
-      <c r="C33" s="49"/>
+      <c r="C33" s="48"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
@@ -8504,8 +8017,8 @@
       <c r="B34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="48" t="s">
-        <v>101</v>
+      <c r="C34" s="47" t="s">
+        <v>96</v>
       </c>
       <c r="D34" s="30">
         <v>-0.28299999999999997</v>
@@ -8610,7 +8123,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="AV34" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AW34" s="30">
         <v>0.23899999999999999</v>
@@ -8660,8 +8173,8 @@
       <c r="B35" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="48" t="s">
-        <v>102</v>
+      <c r="C35" s="47" t="s">
+        <v>97</v>
       </c>
       <c r="D35" s="30">
         <v>-0.214</v>
@@ -8813,8 +8326,8 @@
       <c r="B36" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="48" t="s">
-        <v>103</v>
+      <c r="C36" s="47" t="s">
+        <v>98</v>
       </c>
       <c r="D36" s="30">
         <v>0.26600000000000001</v>
@@ -8971,8 +8484,8 @@
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="48" t="s">
-        <v>104</v>
+      <c r="C37" s="47" t="s">
+        <v>99</v>
       </c>
       <c r="D37" s="30">
         <v>-0.28699999999999998</v>
@@ -9127,8 +8640,8 @@
       <c r="B38" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="48" t="s">
-        <v>105</v>
+      <c r="C38" s="47" t="s">
+        <v>100</v>
       </c>
       <c r="D38" s="30">
         <v>-0.13</v>
@@ -9181,7 +8694,7 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="X38" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Y38" s="30">
         <v>3.3000000000000002E-2</v>
@@ -9197,7 +8710,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="AD38" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AE38" s="30">
         <v>9.0999999999999998E-2</v>
@@ -9354,7 +8867,7 @@
       <c r="B40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="52"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="10">
         <v>5761.1769999999997</v>
       </c>
@@ -9499,12 +9012,12 @@
       </c>
       <c r="BN40" s="10"/>
     </row>
-    <row r="41" spans="1:66" s="61" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:66" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="25"/>
       <c r="B41" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="52"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="26">
         <v>1681.29</v>
       </c>
@@ -9652,7 +9165,7 @@
     <row r="42" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
-      <c r="C42" s="53"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
@@ -9721,8 +9234,8 @@
       <c r="A43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="57"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="19" t="s">
         <v>23</v>
       </c>
@@ -10794,7 +10307,7 @@
       <c r="B50" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="52"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="26">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -10948,7 +10461,7 @@
       <c r="B51" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="53"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="18">
         <v>0.04</v>
       </c>
@@ -11102,6 +10615,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="BF1:BG1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BL1:BM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BC1:BD1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -11114,15 +10636,6 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="BF1:BG1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BL1:BM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="BC1:BD1"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Model building/Results 20.xlsx
+++ b/Model building/Results 20.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\pc\Dokumenter\MSc\Thesis\Model building\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AC1595-9C67-402E-928D-5FE822B85865}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="640"/>
+    <workbookView xWindow="17895" yWindow="8430" windowWidth="17280" windowHeight="8970" tabRatio="640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Development" sheetId="21" r:id="rId1"/>
     <sheet name="Final" sheetId="22" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -349,7 +350,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -915,11 +916,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
@@ -2517,14 +2518,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BN51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK14" sqref="AK14"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2566,7 +2567,7 @@
     <col min="35" max="35" width="7.85546875" style="57" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="4.42578125" style="57" customWidth="1"/>
     <col min="37" max="37" width="9.140625" style="57"/>
-    <col min="38" max="38" width="5.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6" style="57" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="4.42578125" style="57" customWidth="1"/>
     <col min="40" max="40" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="8.85546875" style="57" bestFit="1" customWidth="1"/>
@@ -10610,20 +10611,8 @@
       </c>
       <c r="BN51" s="18"/>
     </row>
-    <row r="55" spans="1:66" x14ac:dyDescent="0.35">
-      <c r="BN55" s="31"/>
-    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="BF1:BG1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BL1:BM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="BC1:BD1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -10636,6 +10625,15 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="BF1:BG1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BL1:BM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BC1:BD1"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Model building/Results 20.xlsx
+++ b/Model building/Results 20.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\pc\Dokumenter\MSc\Thesis\Model building\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AC1595-9C67-402E-928D-5FE822B85865}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17895" yWindow="8430" windowWidth="17280" windowHeight="8970" tabRatio="640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17895" yWindow="8430" windowWidth="17280" windowHeight="8970" tabRatio="640"/>
   </bookViews>
   <sheets>
     <sheet name="Model Development" sheetId="21" r:id="rId1"/>
@@ -350,7 +349,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -403,12 +402,18 @@
       <name val="CMU Serif"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -452,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -629,6 +634,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -916,14 +924,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -940,9 +948,9 @@
     <col min="10" max="10" width="9.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.42578125" style="37" customWidth="1"/>
-    <col min="13" max="13" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" style="37" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" style="37" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
@@ -971,11 +979,11 @@
       </c>
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -1063,10 +1071,10 @@
         <v>5</v>
       </c>
       <c r="M4" s="10">
-        <v>487.29899999999998</v>
+        <v>487.75400000000002</v>
       </c>
       <c r="N4" s="10">
-        <v>4.7949999999999999</v>
+        <v>4.415</v>
       </c>
       <c r="O4" s="37" t="s">
         <v>5</v>
@@ -1117,7 +1125,7 @@
         <v>8</v>
       </c>
       <c r="M6" s="10">
-        <v>-3.2000000000000001E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="N6" s="10">
         <v>1.0999999999999999E-2</v>
@@ -1155,7 +1163,7 @@
         <v>5</v>
       </c>
       <c r="M7" s="13">
-        <v>-8.8999999999999996E-2</v>
+        <v>-9.9000000000000005E-2</v>
       </c>
       <c r="N7" s="13">
         <v>1.0999999999999999E-2</v>
@@ -1193,7 +1201,7 @@
         <v>5</v>
       </c>
       <c r="M8" s="24">
-        <v>5.8000000000000003E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="N8" s="24">
         <v>3.0000000000000001E-3</v>
@@ -1231,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="M9" s="24">
-        <v>5.2999999999999999E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="N9" s="24">
         <v>3.0000000000000001E-3</v>
@@ -1267,13 +1275,13 @@
         <v>8</v>
       </c>
       <c r="M10" s="24">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="N10" s="24">
         <v>2E-3</v>
       </c>
       <c r="O10" s="39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -1299,7 +1307,7 @@
         <v>0.01</v>
       </c>
       <c r="M11" s="10">
-        <v>8.9999999999999993E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="N11" s="10">
         <v>0.01</v>
@@ -1332,10 +1340,10 @@
         <v>95</v>
       </c>
       <c r="M12" s="13">
-        <v>-1.6E-2</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="N12" s="13">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="O12" s="13" t="s">
         <v>95</v>
@@ -1370,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="M13" s="24">
-        <v>2.5000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="N13" s="24">
         <v>3.0000000000000001E-3</v>
@@ -1408,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="M14" s="24">
-        <v>0.02</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="N14" s="24">
         <v>2E-3</v>
@@ -1444,13 +1452,13 @@
         <v>8</v>
       </c>
       <c r="M15" s="24">
-        <v>5.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="N15" s="24">
         <v>2E-3</v>
       </c>
       <c r="O15" s="39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -1479,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="M16" s="10">
-        <v>5.5E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="N16" s="10">
         <v>8.9999999999999993E-3</v>
@@ -1517,7 +1525,7 @@
         <v>5</v>
       </c>
       <c r="M17" s="13">
-        <v>4.5999999999999999E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="N17" s="13">
         <v>8.9999999999999993E-3</v>
@@ -1593,7 +1601,7 @@
         <v>5</v>
       </c>
       <c r="M19" s="24">
-        <v>8.9999999999999993E-3</v>
+        <v>0.01</v>
       </c>
       <c r="N19" s="24">
         <v>2E-3</v>
@@ -1660,10 +1668,10 @@
         <v>5</v>
       </c>
       <c r="M21" s="10">
-        <v>0.28999999999999998</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="N21" s="10">
-        <v>1.6E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O21" s="37" t="s">
         <v>5</v>
@@ -1695,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="M22" s="10">
-        <v>0.245</v>
+        <v>0.249</v>
       </c>
       <c r="N22" s="10">
         <v>1.4999999999999999E-2</v>
@@ -1730,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="M23" s="10">
-        <v>4.4999999999999998E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="N23" s="10">
         <v>3.0000000000000001E-3</v>
@@ -1765,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="M24" s="10">
-        <v>4.2999999999999997E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="N24" s="10">
         <v>3.0000000000000001E-3</v>
@@ -1803,7 +1811,7 @@
         <v>1E-3</v>
       </c>
       <c r="O25" s="37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.35">
@@ -1829,7 +1837,7 @@
         <v>8</v>
       </c>
       <c r="M26" s="14">
-        <v>-4.1000000000000002E-2</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="N26" s="14">
         <v>1.2E-2</v>
@@ -1864,7 +1872,7 @@
         <v>8</v>
       </c>
       <c r="M27" s="14">
-        <v>-5.0000000000000001E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="N27" s="14">
         <v>2E-3</v>
@@ -1899,13 +1907,13 @@
         <v>9</v>
       </c>
       <c r="M28" s="14">
-        <v>-0.05</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="N28" s="14">
         <v>2E-3</v>
       </c>
       <c r="O28" s="37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.35">
@@ -1966,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="M30" s="10">
-        <v>8.0000000000000002E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="N30" s="10">
         <v>2E-3</v>
@@ -2007,7 +2015,7 @@
         <v>2E-3</v>
       </c>
       <c r="O31" s="37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.35">
@@ -2033,13 +2041,13 @@
         <v>8</v>
       </c>
       <c r="M32" s="10">
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N32" s="10">
         <v>1E-3</v>
       </c>
       <c r="O32" s="37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -2069,7 +2077,7 @@
         <v>96</v>
       </c>
       <c r="M34" s="10">
-        <v>-0.28299999999999997</v>
+        <v>-0.27600000000000002</v>
       </c>
       <c r="N34" s="10">
         <v>6.5000000000000002E-2</v>
@@ -2088,10 +2096,10 @@
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="M35" s="10">
-        <v>-0.214</v>
+        <v>-0.223</v>
       </c>
       <c r="N35" s="10">
-        <v>5.3999999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="O35" s="37" t="s">
         <v>5</v>
@@ -2105,10 +2113,10 @@
         <v>98</v>
       </c>
       <c r="M36" s="10">
-        <v>0.26600000000000001</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="N36" s="10">
-        <v>7.0999999999999994E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="O36" s="37" t="s">
         <v>5</v>
@@ -2122,10 +2130,10 @@
         <v>99</v>
       </c>
       <c r="M37" s="10">
-        <v>-0.28699999999999998</v>
+        <v>-0.31</v>
       </c>
       <c r="N37" s="10">
-        <v>3.9E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="O37" s="37" t="s">
         <v>5</v>
@@ -2139,10 +2147,10 @@
         <v>100</v>
       </c>
       <c r="M38" s="10">
-        <v>-0.13</v>
+        <v>-0.14199999999999999</v>
       </c>
       <c r="N38" s="10">
-        <v>1.4E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="O38" s="37" t="s">
         <v>5</v>
@@ -2181,10 +2189,10 @@
       </c>
       <c r="L40" s="40"/>
       <c r="M40" s="26">
-        <v>5761.1769999999997</v>
+        <v>5702.2430000000004</v>
       </c>
       <c r="N40" s="26">
-        <v>130.59399999999999</v>
+        <v>127.389</v>
       </c>
       <c r="O40" s="40"/>
     </row>
@@ -2212,10 +2220,10 @@
       </c>
       <c r="L41" s="41"/>
       <c r="M41" s="18">
-        <v>1681.29</v>
+        <v>1584.5119999999999</v>
       </c>
       <c r="N41" s="18">
-        <v>138.79499999999999</v>
+        <v>128.16900000000001</v>
       </c>
       <c r="O41" s="41"/>
     </row>
@@ -2281,10 +2289,10 @@
       </c>
       <c r="L43" s="43"/>
       <c r="M43" s="22">
-        <v>3418712.0010000002</v>
+        <v>3459873.4950000001</v>
       </c>
       <c r="N43" s="22">
-        <v>1240.4179999999999</v>
+        <v>1009.307</v>
       </c>
       <c r="O43" s="43"/>
     </row>
@@ -2315,10 +2323,10 @@
       </c>
       <c r="L44" s="43"/>
       <c r="M44" s="22">
-        <v>2419306.091</v>
+        <v>3460505.9139999999</v>
       </c>
       <c r="N44" s="22">
-        <v>1240.4179999999999</v>
+        <v>1009.307</v>
       </c>
       <c r="O44" s="43"/>
     </row>
@@ -2345,10 +2353,10 @@
         <v>8.0530000000000008</v>
       </c>
       <c r="M45" s="10">
-        <v>261.80900000000003</v>
+        <v>254.97900000000001</v>
       </c>
       <c r="N45" s="10">
-        <v>8.8979999999999997</v>
+        <v>6.4640000000000004</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -2403,7 +2411,7 @@
         <v>1E-3</v>
       </c>
       <c r="M47" s="10">
-        <v>0.96399999999999997</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="N47" s="10">
         <v>1E-3</v>
@@ -2432,7 +2440,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="M48" s="10">
-        <v>0.90100000000000002</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="N48" s="10">
         <v>3.0000000000000001E-3</v>
@@ -2497,10 +2505,10 @@
       </c>
       <c r="L50" s="41"/>
       <c r="M50" s="18">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="N50" s="18">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O50" s="41"/>
     </row>
@@ -2518,10 +2526,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -10613,6 +10621,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="BF1:BG1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BL1:BM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BC1:BD1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -10625,15 +10642,6 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="BF1:BG1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BL1:BM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="BC1:BD1"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Model building/Results 20.xlsx
+++ b/Model building/Results 20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\pc\Dokumenter\MSc\Thesis\Model building\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E5D871-1E5C-490A-ACDD-3F0D5F4CA2D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AA47D1-AC0F-4600-9F60-B1B1DCA4202B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15915" yWindow="3735" windowWidth="17280" windowHeight="8970" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Development" sheetId="21" r:id="rId1"/>
@@ -266,9 +266,6 @@
     <t>γ₄₁β₁</t>
   </si>
   <si>
-    <t>γ₄₁β₂</t>
-  </si>
-  <si>
     <t>γ₅</t>
   </si>
   <si>
@@ -340,6 +337,28 @@
   <si>
     <t>γ₄₂β₂</t>
   </si>
+  <si>
+    <r>
+      <t>γ₄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>₂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="CMU Serif"/>
+      </rPr>
+      <t>β₂</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -348,7 +367,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +414,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="CMU Serif"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -914,33 +939,33 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:O50"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="10"/>
-    <col min="5" max="5" width="8.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="10"/>
+    <col min="5" max="5" width="8.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" style="37" customWidth="1"/>
     <col min="7" max="7" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="37" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" style="37" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.140625" style="37" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="53"/>
+    <col min="8" max="8" width="8.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.44140625" style="37" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.44140625" style="37" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" style="37" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="34"/>
       <c r="B1" s="1"/>
       <c r="C1" s="44" t="s">
@@ -967,7 +992,7 @@
       <c r="N1" s="60"/>
       <c r="O1" s="60"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="45" t="s">
@@ -1002,7 +1027,7 @@
       </c>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1046,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="31"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1062,7 +1087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -1081,12 +1106,12 @@
       <c r="N5" s="11"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="10">
         <v>-7.2999999999999995E-2</v>
@@ -1116,7 +1141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
@@ -1154,12 +1179,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B8" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -1192,7 +1217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B9" s="23" t="s">
         <v>61</v>
       </c>
@@ -1230,7 +1255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B10" s="23" t="s">
         <v>62</v>
       </c>
@@ -1266,12 +1291,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" s="10">
         <v>8.0000000000000002E-3</v>
@@ -1293,7 +1318,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
@@ -1331,12 +1356,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B13" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
@@ -1369,7 +1394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B14" s="23" t="s">
         <v>61</v>
       </c>
@@ -1407,7 +1432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B15" s="23" t="s">
         <v>62</v>
       </c>
@@ -1443,12 +1468,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G16" s="10">
         <v>7.4999999999999997E-2</v>
@@ -1478,7 +1503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="12" t="s">
         <v>10</v>
       </c>
@@ -1516,12 +1541,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -1554,7 +1579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B19" s="23" t="s">
         <v>61</v>
       </c>
@@ -1592,7 +1617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B20" s="23" t="s">
         <v>62</v>
       </c>
@@ -1624,12 +1649,12 @@
       </c>
       <c r="O20" s="39"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B21" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" s="10">
         <v>0.497</v>
@@ -1659,7 +1684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B22" s="35" t="s">
         <v>10</v>
       </c>
@@ -1694,12 +1719,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B23" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" s="10">
         <v>5.1999999999999998E-2</v>
@@ -1729,7 +1754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B24" s="35" t="s">
         <v>61</v>
       </c>
@@ -1764,12 +1789,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B25" s="35" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="G25" s="10">
         <v>1E-3</v>
@@ -1796,12 +1821,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B26" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="10">
         <v>4.0000000000000001E-3</v>
@@ -1828,12 +1853,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B27" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G27" s="10">
         <v>-3.0000000000000001E-3</v>
@@ -1842,7 +1867,7 @@
         <v>2E-3</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J27" s="14">
         <v>-6.0000000000000001E-3</v>
@@ -1863,12 +1888,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B28" s="35" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G28" s="10">
         <v>-3.0000000000000001E-3</v>
@@ -1877,7 +1902,7 @@
         <v>2E-3</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J28" s="14">
         <v>-5.0000000000000001E-3</v>
@@ -1898,12 +1923,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B29" s="35" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
@@ -1930,12 +1955,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B30" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" s="10">
         <v>4.0000000000000001E-3</v>
@@ -1965,12 +1990,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B31" s="35" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="10">
         <v>3.0000000000000001E-3</v>
@@ -2000,12 +2025,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B32" s="35" t="s">
         <v>62</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="10">
         <v>1E-3</v>
@@ -2032,7 +2057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>14</v>
       </c>
@@ -2051,12 +2076,12 @@
       <c r="N33" s="11"/>
       <c r="O33" s="16"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B34" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M34" s="10">
         <v>-0.29499999999999998</v>
@@ -2068,12 +2093,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B35" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -2087,12 +2112,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B36" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M36" s="10">
         <v>0.23300000000000001</v>
@@ -2104,12 +2129,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M37" s="10">
         <v>-0.29199999999999998</v>
@@ -2121,12 +2146,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B38" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M38" s="10">
         <v>-0.13200000000000001</v>
@@ -2138,12 +2163,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
       <c r="B40" s="25" t="s">
         <v>20</v>
@@ -2178,7 +2203,7 @@
       </c>
       <c r="O40" s="40"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="17"/>
       <c r="B41" s="17" t="s">
         <v>21</v>
@@ -2209,7 +2234,7 @@
       </c>
       <c r="O41" s="41"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
         <v>22</v>
       </c>
@@ -2244,7 +2269,7 @@
       </c>
       <c r="O42" s="42"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="16"/>
       <c r="B43" s="9" t="s">
         <v>25</v>
@@ -2278,7 +2303,7 @@
       </c>
       <c r="O43" s="43"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="16"/>
       <c r="B44" s="9" t="s">
         <v>26</v>
@@ -2312,7 +2337,7 @@
       </c>
       <c r="O44" s="43"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B45" s="9" t="s">
         <v>27</v>
       </c>
@@ -2341,7 +2366,7 @@
         <v>11.746</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B46" s="9" t="s">
         <v>28</v>
       </c>
@@ -2370,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B47" s="9" t="s">
         <v>29</v>
       </c>
@@ -2399,7 +2424,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B48" s="9" t="s">
         <v>30</v>
       </c>
@@ -2428,7 +2453,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
       <c r="B49" s="25" t="s">
         <v>31</v>
@@ -2463,7 +2488,7 @@
       </c>
       <c r="O49" s="40"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>32</v>
@@ -2518,84 +2543,84 @@
       <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="57" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="47" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="57"/>
+    <col min="5" max="5" width="8.109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="57"/>
     <col min="8" max="8" width="9" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="57" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="57"/>
-    <col min="11" max="11" width="8.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" style="57" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" style="57" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.44140625" style="57" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="57"/>
+    <col min="11" max="11" width="8.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.44140625" style="57" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="57" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" style="57" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" style="57" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="57" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.109375" style="57" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="57" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.42578125" style="57" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.44140625" style="57" customWidth="1"/>
+    <col min="22" max="22" width="9.44140625" style="57" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8" style="57" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.42578125" style="57" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="57"/>
-    <col min="26" max="26" width="8.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.42578125" style="57" customWidth="1"/>
+    <col min="24" max="24" width="4.44140625" style="57" customWidth="1"/>
+    <col min="25" max="25" width="9.109375" style="57"/>
+    <col min="26" max="26" width="8.109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.44140625" style="57" customWidth="1"/>
     <col min="28" max="28" width="9" style="57" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.85546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.88671875" style="57" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.109375" style="57" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" style="57" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.42578125" style="57" customWidth="1"/>
-    <col min="34" max="34" width="8.85546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.85546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.42578125" style="57" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" style="57"/>
-    <col min="38" max="38" width="7.85546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.42578125" style="57" customWidth="1"/>
-    <col min="40" max="40" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.42578125" style="57" customWidth="1"/>
-    <col min="43" max="43" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.42578125" style="57" customWidth="1"/>
-    <col min="46" max="46" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="4.42578125" style="57" customWidth="1"/>
-    <col min="49" max="49" width="9.140625" style="57"/>
-    <col min="50" max="50" width="8.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="4.42578125" style="57" customWidth="1"/>
+    <col min="32" max="32" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.44140625" style="57" customWidth="1"/>
+    <col min="34" max="34" width="8.88671875" style="57" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.88671875" style="57" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.44140625" style="57" customWidth="1"/>
+    <col min="37" max="37" width="9.109375" style="57"/>
+    <col min="38" max="38" width="7.88671875" style="57" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.44140625" style="57" customWidth="1"/>
+    <col min="40" max="40" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.44140625" style="57" customWidth="1"/>
+    <col min="43" max="43" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.44140625" style="57" customWidth="1"/>
+    <col min="46" max="46" width="9.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.44140625" style="57" customWidth="1"/>
+    <col min="49" max="49" width="9.109375" style="57"/>
+    <col min="50" max="50" width="8.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.44140625" style="57" customWidth="1"/>
     <col min="52" max="52" width="9" style="57" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="4.42578125" style="57" customWidth="1"/>
-    <col min="55" max="55" width="9.140625" style="57"/>
-    <col min="56" max="56" width="7.85546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="4.42578125" style="57" customWidth="1"/>
-    <col min="58" max="59" width="9.140625" style="57"/>
-    <col min="60" max="60" width="4.42578125" style="57" customWidth="1"/>
-    <col min="61" max="61" width="8.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="4.44140625" style="57" customWidth="1"/>
+    <col min="55" max="55" width="9.109375" style="57"/>
+    <col min="56" max="56" width="7.88671875" style="57" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.44140625" style="57" customWidth="1"/>
+    <col min="58" max="59" width="9.109375" style="57"/>
+    <col min="60" max="60" width="4.44140625" style="57" customWidth="1"/>
+    <col min="61" max="61" width="8.6640625" style="57" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="8" style="57" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="4.42578125" style="57" customWidth="1"/>
+    <col min="63" max="63" width="4.44140625" style="57" customWidth="1"/>
     <col min="64" max="64" width="9" style="57" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="7.85546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="4.42578125" style="57" customWidth="1"/>
-    <col min="67" max="16384" width="9.140625" style="57"/>
+    <col min="65" max="65" width="7.88671875" style="57" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="4.44140625" style="57" customWidth="1"/>
+    <col min="67" max="16384" width="9.109375" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="44" t="s">
         <v>68</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E1" s="61"/>
       <c r="F1" s="2"/>
@@ -2700,7 +2725,7 @@
       <c r="BM1" s="61"/>
       <c r="BN1" s="2"/>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="45" t="s">
@@ -2854,7 +2879,7 @@
       </c>
       <c r="BN2" s="5"/>
     </row>
-    <row r="3" spans="1:66" s="58" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:66" s="58" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2930,7 +2955,7 @@
       <c r="BM3" s="30"/>
       <c r="BN3" s="31"/>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
         <v>4</v>
@@ -2951,7 +2976,7 @@
         <v>279.74</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J4" s="10">
         <v>344.03899999999999</v>
@@ -3105,7 +3130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -3175,13 +3200,13 @@
       <c r="BM5" s="11"/>
       <c r="BN5" s="11"/>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="10">
         <v>-3.5999999999999997E-2</v>
@@ -3347,7 +3372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
       <c r="B7" s="12" t="s">
         <v>10</v>
@@ -3405,7 +3430,7 @@
         <v>0.02</v>
       </c>
       <c r="U7" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V7" s="13">
         <v>0.08</v>
@@ -3457,7 +3482,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="AM7" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN7" s="13">
         <v>-3.0000000000000001E-3</v>
@@ -3529,13 +3554,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
       <c r="B8" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="24">
         <v>5.1999999999999998E-2</v>
@@ -3717,7 +3742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
       <c r="B9" s="23" t="s">
         <v>61</v>
@@ -3905,7 +3930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
       <c r="B10" s="23" t="s">
         <v>62</v>
@@ -3970,7 +3995,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="X10" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y10" s="24">
         <v>4.0000000000000001E-3</v>
@@ -4085,13 +4110,13 @@
       </c>
       <c r="BN10" s="24"/>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="10">
         <v>5.0000000000000001E-3</v>
@@ -4253,7 +4278,7 @@
       </c>
       <c r="BN11" s="10"/>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
       <c r="B12" s="12" t="s">
         <v>10</v>
@@ -4291,7 +4316,7 @@
         <v>2.3E-2</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P12" s="13">
         <v>4.1000000000000002E-2</v>
@@ -4427,13 +4452,13 @@
       </c>
       <c r="BN12" s="13"/>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A13" s="9"/>
       <c r="B13" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="24">
         <v>2.4E-2</v>
@@ -4613,7 +4638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A14" s="9"/>
       <c r="B14" s="23" t="s">
         <v>61</v>
@@ -4799,7 +4824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
       <c r="B15" s="23" t="s">
         <v>62</v>
@@ -4977,13 +5002,13 @@
       </c>
       <c r="BN15" s="24"/>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="10">
         <v>5.2999999999999999E-2</v>
@@ -5118,7 +5143,7 @@
         <v>0.02</v>
       </c>
       <c r="BB16" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BC16" s="10">
         <v>5.0999999999999997E-2</v>
@@ -5157,7 +5182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A17" s="9"/>
       <c r="B17" s="12" t="s">
         <v>10</v>
@@ -5206,7 +5231,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S17" s="13">
         <v>2.5999999999999999E-2</v>
@@ -5305,7 +5330,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="BE17" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF17" s="13">
         <v>8.1000000000000003E-2</v>
@@ -5335,13 +5360,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A18" s="9"/>
       <c r="B18" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="24">
         <v>7.0000000000000001E-3</v>
@@ -5412,7 +5437,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD18" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE18" s="24">
         <v>7.0000000000000001E-3</v>
@@ -5513,10 +5538,10 @@
       </c>
       <c r="BN18" s="24"/>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A19" s="9"/>
       <c r="B19" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>73</v>
@@ -5588,7 +5613,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD19" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE19" s="24">
         <v>7.0000000000000001E-3</v>
@@ -5687,7 +5712,7 @@
       </c>
       <c r="BN19" s="24"/>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A20" s="9"/>
       <c r="B20" s="23" t="s">
         <v>62</v>
@@ -5774,7 +5799,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AJ20" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK20" s="24">
         <v>3.0000000000000001E-3</v>
@@ -5783,7 +5808,7 @@
         <v>2E-3</v>
       </c>
       <c r="AM20" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN20" s="24">
         <v>2E-3</v>
@@ -5849,13 +5874,13 @@
       </c>
       <c r="BN20" s="24"/>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="14">
         <v>0.28899999999999998</v>
@@ -6037,7 +6062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
       <c r="B22" s="28" t="s">
         <v>10</v>
@@ -6122,7 +6147,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="AD22" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE22" s="14">
         <v>6.9000000000000006E-2</v>
@@ -6225,13 +6250,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A23" s="9"/>
       <c r="B23" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="14">
         <v>4.1000000000000002E-2</v>
@@ -6413,7 +6438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A24" s="9"/>
       <c r="B24" s="28" t="s">
         <v>61</v>
@@ -6601,13 +6626,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
       <c r="B25" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" s="14">
         <v>1E-3</v>
@@ -6754,7 +6779,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="BH25" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI25" s="14">
         <v>1E-3</v>
@@ -6771,13 +6796,13 @@
       </c>
       <c r="BN25" s="31"/>
     </row>
-    <row r="26" spans="1:66" s="53" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:66" s="53" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="14">
         <v>-0.04</v>
@@ -6933,13 +6958,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="14">
         <v>-6.0000000000000001E-3</v>
@@ -7095,13 +7120,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A28" s="9"/>
       <c r="B28" s="28" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="14">
         <v>-5.0000000000000001E-3</v>
@@ -7147,7 +7172,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="U28" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V28" s="14">
         <v>-1.2E-2</v>
@@ -7245,7 +7270,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="BK28" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BL28" s="14">
         <v>-8.0000000000000002E-3</v>
@@ -7257,13 +7282,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
       <c r="B29" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="14">
         <v>-1E-3</v>
@@ -7339,7 +7364,7 @@
         <v>1E-3</v>
       </c>
       <c r="AG29" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH29" s="14">
         <v>-1E-3</v>
@@ -7415,13 +7440,13 @@
       </c>
       <c r="BN29" s="32"/>
     </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" s="14">
         <v>7.0000000000000001E-3</v>
@@ -7471,7 +7496,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="U30" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V30" s="14">
         <v>2.1999999999999999E-2</v>
@@ -7567,7 +7592,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="BE30" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF30" s="14">
         <v>8.9999999999999993E-3</v>
@@ -7576,7 +7601,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="BH30" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI30" s="14">
         <v>3.0000000000000001E-3</v>
@@ -7595,13 +7620,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A31" s="9"/>
       <c r="B31" s="28" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="14">
         <v>4.0000000000000001E-3</v>
@@ -7626,7 +7651,7 @@
         <v>2E-3</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M31" s="14">
         <v>2.3E-2</v>
@@ -7644,7 +7669,7 @@
         <v>2E-3</v>
       </c>
       <c r="R31" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S31" s="14">
         <v>-2E-3</v>
@@ -7767,13 +7792,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A32" s="9"/>
       <c r="B32" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" s="14">
         <v>3.0000000000000001E-3</v>
@@ -7832,7 +7857,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="X32" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y32" s="14">
         <v>2E-3</v>
@@ -7945,7 +7970,7 @@
       </c>
       <c r="BN32" s="14"/>
     </row>
-    <row r="33" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>14</v>
       </c>
@@ -8015,13 +8040,13 @@
       <c r="BM33" s="33"/>
       <c r="BN33" s="33"/>
     </row>
-    <row r="34" spans="1:66" s="53" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:66" s="53" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" s="30">
         <v>-0.29499999999999998</v>
@@ -8132,7 +8157,7 @@
         <v>0.2</v>
       </c>
       <c r="AV34" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AW34" s="30"/>
       <c r="AX34" s="30"/>
@@ -8175,13 +8200,13 @@
       </c>
       <c r="BN34" s="31"/>
     </row>
-    <row r="35" spans="1:66" s="53" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:66" s="53" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" s="30">
         <v>-0.22500000000000001</v>
@@ -8331,13 +8356,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:66" s="53" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:66" s="53" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D36" s="30">
         <v>0.23300000000000001</v>
@@ -8489,13 +8514,13 @@
       </c>
       <c r="BN36" s="31"/>
     </row>
-    <row r="37" spans="1:66" s="53" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:66" s="53" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D37" s="30">
         <v>-0.29199999999999998</v>
@@ -8645,13 +8670,13 @@
       </c>
       <c r="BN37" s="31"/>
     </row>
-    <row r="38" spans="1:66" s="53" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:66" s="53" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" s="30">
         <v>-0.13200000000000001</v>
@@ -8799,7 +8824,7 @@
       </c>
       <c r="BN38" s="31"/>
     </row>
-    <row r="39" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A39" s="16" t="s">
         <v>36</v>
       </c>
@@ -8868,7 +8893,7 @@
       <c r="BM39" s="14"/>
       <c r="BN39" s="14"/>
     </row>
-    <row r="40" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
       <c r="B40" s="25" t="s">
         <v>20</v>
@@ -9018,7 +9043,7 @@
       </c>
       <c r="BN40" s="26"/>
     </row>
-    <row r="41" spans="1:66" s="59" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:66" s="59" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="17"/>
       <c r="B41" s="17" t="s">
         <v>21</v>
@@ -9168,7 +9193,7 @@
       </c>
       <c r="BN41" s="18"/>
     </row>
-    <row r="42" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
         <v>22</v>
       </c>
@@ -9322,7 +9347,7 @@
       </c>
       <c r="BN42" s="21"/>
     </row>
-    <row r="43" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A43" s="16"/>
       <c r="B43" s="9" t="s">
         <v>25</v>
@@ -9475,7 +9500,7 @@
       </c>
       <c r="BN43" s="22"/>
     </row>
-    <row r="44" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A44" s="16"/>
       <c r="B44" s="9" t="s">
         <v>26</v>
@@ -9628,7 +9653,7 @@
       </c>
       <c r="BN44" s="22"/>
     </row>
-    <row r="45" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A45" s="9"/>
       <c r="B45" s="9" t="s">
         <v>27</v>
@@ -9781,7 +9806,7 @@
       </c>
       <c r="BN45" s="10"/>
     </row>
-    <row r="46" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A46" s="9"/>
       <c r="B46" s="9" t="s">
         <v>28</v>
@@ -9934,7 +9959,7 @@
       </c>
       <c r="BN46" s="10"/>
     </row>
-    <row r="47" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="s">
         <v>29</v>
@@ -10087,7 +10112,7 @@
       </c>
       <c r="BN47" s="10"/>
     </row>
-    <row r="48" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A48" s="9"/>
       <c r="B48" s="9" t="s">
         <v>30</v>
@@ -10240,7 +10265,7 @@
       </c>
       <c r="BN48" s="10"/>
     </row>
-    <row r="49" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
       <c r="B49" s="25" t="s">
         <v>31</v>
@@ -10394,7 +10419,7 @@
       </c>
       <c r="BN49" s="26"/>
     </row>
-    <row r="50" spans="1:66" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>32</v>
@@ -10550,15 +10575,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="BF1:BG1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="BL1:BM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="BC1:BD1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -10571,6 +10587,15 @@
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="BF1:BG1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BL1:BM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BC1:BD1"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Model building/Results 20.xlsx
+++ b/Model building/Results 20.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\pc\Dokumenter\MSc\Thesis\Model building\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BECEF51-A454-4930-AC1B-BB95737A1444}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E990981C-29C9-49FF-A1FC-BDE7FDB44E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16710" yWindow="7875" windowWidth="13830" windowHeight="7170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Development" sheetId="1" r:id="rId1"/>
     <sheet name="Final" sheetId="2" r:id="rId2"/>
+    <sheet name="Comparison" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="102">
   <si>
     <t>Model</t>
   </si>
@@ -481,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -653,6 +654,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -971,11 +981,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2569,10 +2579,10 @@
   <dimension ref="A1:AMJ54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -11144,30 +11154,1281 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AT1:AU1"/>
     <mergeCell ref="BL1:BM1"/>
     <mergeCell ref="AW1:AX1"/>
     <mergeCell ref="AZ1:BA1"/>
     <mergeCell ref="BC1:BD1"/>
     <mergeCell ref="BF1:BG1"/>
     <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0" bottom="0" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="8" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E203DE-E0BA-4191-A294-8CF9349A1DDF}">
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="8" style="45" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="9" style="45" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="45" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="60"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="60"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>470.01299999999998</v>
+      </c>
+      <c r="E4" s="3">
+        <v>68.296000000000006</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3">
+        <v>493.96100000000001</v>
+      </c>
+      <c r="H4" s="3">
+        <v>19.146999999999998</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.08</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="23">
+        <v>-0.126</v>
+      </c>
+      <c r="H7" s="23">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0.09</v>
+      </c>
+      <c r="E8" s="27">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="27">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H8" s="27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="27">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E9" s="27">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="27">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H9" s="27">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="27">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E10" s="27">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="H10" s="27">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-6.7000000000000004E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="23">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="E12" s="23">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="23">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="H12" s="23">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E13" s="27">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="27">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H13" s="27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="27">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E14" s="27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="27">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H14" s="27">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="27">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E15" s="27">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="H15" s="27">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="23">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E17" s="23">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23">
+        <v>0.06</v>
+      </c>
+      <c r="H17" s="23">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="27">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E18" s="27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H18" s="27">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E19" s="27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H19" s="27">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="E20" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27">
+        <v>0</v>
+      </c>
+      <c r="H20" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="29">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="E21" s="29">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="29">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="H21" s="29">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="29">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E22" s="29">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="29">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="H22" s="29">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="29">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E23" s="29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="29">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H23" s="29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="29">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E24" s="29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="29">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H24" s="29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="E25" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="29">
+        <v>0</v>
+      </c>
+      <c r="H25" s="29">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="61">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="E26" s="61">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F26" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="61">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="H26" s="61">
+        <v>0.02</v>
+      </c>
+      <c r="I26" s="61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="29">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="E27" s="29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="29">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="H27" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="29">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="E28" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="29">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="H28" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="I29" s="51"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="29">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E30" s="29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="29">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H30" s="29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="29">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E31" s="29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="29">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H31" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E32" s="29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="H32" s="29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I32" s="29"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="48">
+        <v>0.152</v>
+      </c>
+      <c r="E34" s="48">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="48">
+        <v>-0.42199999999999999</v>
+      </c>
+      <c r="H34" s="48">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="48">
+        <v>0.432</v>
+      </c>
+      <c r="E35" s="48">
+        <v>1.3069999999999999</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="48">
+        <v>-0.60499999999999998</v>
+      </c>
+      <c r="H35" s="48">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="I35" s="45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="48">
+        <v>0.54</v>
+      </c>
+      <c r="E36" s="48">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="48">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="H36" s="48">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="48">
+        <v>-0.217</v>
+      </c>
+      <c r="E37" s="48">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="48">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="H37" s="48">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="48">
+        <v>0.17</v>
+      </c>
+      <c r="E38" s="48">
+        <v>0.161</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="48">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H38" s="48">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="48">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E40" s="48">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="48">
+        <v>-0.11</v>
+      </c>
+      <c r="H40" s="48">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="48">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E41" s="48">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="48">
+        <v>-0.19900000000000001</v>
+      </c>
+      <c r="H41" s="48">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="48">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E42" s="48">
+        <v>0.158</v>
+      </c>
+      <c r="F42" s="29"/>
+      <c r="G42" s="48">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="H42" s="48">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="D44" s="33">
+        <v>8043.7160000000003</v>
+      </c>
+      <c r="E44" s="33">
+        <v>222.114</v>
+      </c>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33">
+        <v>7699.5910000000003</v>
+      </c>
+      <c r="H44" s="33">
+        <v>263.08499999999998</v>
+      </c>
+      <c r="I44" s="33"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="37">
+        <v>150.22900000000001</v>
+      </c>
+      <c r="E45" s="37">
+        <v>139.434</v>
+      </c>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37">
+        <v>200.566</v>
+      </c>
+      <c r="H45" s="37">
+        <v>217.642</v>
+      </c>
+      <c r="I45" s="37"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="39"/>
+      <c r="D46" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="54"/>
+      <c r="G46" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46" s="54"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="43">
+        <v>127519.507</v>
+      </c>
+      <c r="E47" s="43">
+        <v>126.199</v>
+      </c>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43">
+        <v>124916.80499999999</v>
+      </c>
+      <c r="H47" s="43">
+        <v>85.450999999999993</v>
+      </c>
+      <c r="I47" s="43"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="43">
+        <v>127940.11599999999</v>
+      </c>
+      <c r="E48" s="43">
+        <v>126.199</v>
+      </c>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43">
+        <v>125327.74099999999</v>
+      </c>
+      <c r="H48" s="43">
+        <v>85.450999999999993</v>
+      </c>
+      <c r="I48" s="43"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="3">
+        <v>94.275999999999996</v>
+      </c>
+      <c r="E49" s="3">
+        <v>8.4450000000000003</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3">
+        <v>136.63200000000001</v>
+      </c>
+      <c r="H49" s="3">
+        <v>8.0630000000000006</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="E51" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="H51" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="31"/>
+      <c r="B53" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="32"/>
+      <c r="D53" s="33">
+        <v>0.02</v>
+      </c>
+      <c r="E53" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H53" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="I53" s="33"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="37">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E54" s="37">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H54" s="37">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I54" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>